--- a/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.05.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.05.xlsx
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.36873156342183</v>
+        <v>81.21670602686875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4098804839897639</v>
+        <v>0.5292277754129221</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8536873156342184</v>
+        <v>0.8121670602686875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8430042224445524</v>
+        <v>0.8034361275025809</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.12389380530973</v>
+        <v>86.26164586198843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2337583890157475</v>
+        <v>0.3333645293430891</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9212389380530974</v>
+        <v>0.8626164586198843</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9182578484044319</v>
+        <v>0.8591204807192158</v>
       </c>
     </row>
     <row r="4">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.61061946902655</v>
+        <v>81.06609918770923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3947519844553123</v>
+        <v>0.5298981895049413</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8761061946902655</v>
+        <v>0.8106609918770923</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8597479678328911</v>
+        <v>0.7951880920785964</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>88.9972231593699</v>
+        <v>77.32091108054568</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2547463122910509</v>
+        <v>0.5555900086493542</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8899722315936989</v>
+        <v>0.7732091108054568</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8860700687937572</v>
+        <v>0.762727136334828</v>
       </c>
     </row>
     <row r="6">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.53982300884955</v>
+        <v>83.59544632739038</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1829460680872823</v>
+        <v>0.4298900517945488</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9353982300884957</v>
+        <v>0.8359544632739038</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9333590419022159</v>
+        <v>0.8367960402327885</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89.88200589970502</v>
+        <v>76.81562989299215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2589371769106947</v>
+        <v>0.605942080480357</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8988200589970502</v>
+        <v>0.7681562989299215</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8983065775458254</v>
+        <v>0.7588472625414497</v>
       </c>
     </row>
     <row r="8">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.76106194690266</v>
+        <v>77.34331611865154</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2748991847971714</v>
+        <v>0.5125729839140453</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8876106194690265</v>
+        <v>0.7734331611865155</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8771492495221066</v>
+        <v>0.7644538384643766</v>
       </c>
     </row>
     <row r="9">
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.83480825958702</v>
+        <v>83.93818285625308</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1572291722594248</v>
+        <v>0.3679077623489623</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9383480825958703</v>
+        <v>0.8393818285625307</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9373188228249838</v>
+        <v>0.8250679653985873</v>
       </c>
     </row>
     <row r="10">
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.66961651917404</v>
+        <v>87.82264552461527</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06304900777267144</v>
+        <v>0.3223176496141605</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9766961651917404</v>
+        <v>0.8782264552461527</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9767248323757766</v>
+        <v>0.8764110391822391</v>
       </c>
     </row>
     <row r="11">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.69616519174042</v>
+        <v>90.39714876426267</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08306803327864903</v>
+        <v>0.2472616424851973</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9669616519174042</v>
+        <v>0.9039714876426267</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9669772592017978</v>
+        <v>0.9039994454066267</v>
       </c>
     </row>
     <row r="12">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89.41106756978867</v>
+        <v>82.36455332658588</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2622319646567727</v>
+        <v>0.4261059633766611</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8941106756978867</v>
+        <v>0.8236455332658587</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8960485464890686</v>
+        <v>0.8228374854331367</v>
       </c>
     </row>
     <row r="13">
@@ -682,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>94.39614529537452</v>
+        <v>86.18647220131662</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1459417109125449</v>
+        <v>0.3770820547360927</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9439614529537452</v>
+        <v>0.8618647220131661</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9417634581356191</v>
+        <v>0.8603210106039286</v>
       </c>
     </row>
     <row r="14">
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.79941002949853</v>
+        <v>76.93647868926202</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2025934136894042</v>
+        <v>0.547127282541866</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9179941002949853</v>
+        <v>0.7693647868926201</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9161716368717017</v>
+        <v>0.7544869652915691</v>
       </c>
     </row>
     <row r="15">
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>87.40603292416024</v>
+        <v>80.19031306499191</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2802324024339517</v>
+        <v>0.4976620395978292</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8740603292416024</v>
+        <v>0.801903130649919</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8732077957097448</v>
+        <v>0.8034353558262423</v>
       </c>
     </row>
     <row r="16">
@@ -739,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.70067215114318</v>
+        <v>81.40528897308801</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3188363827066496</v>
+        <v>0.49018628768002</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8770067215114319</v>
+        <v>0.8140528897308801</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8751844168061881</v>
+        <v>0.811246847816067</v>
       </c>
     </row>
     <row r="17">
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.74631268436579</v>
+        <v>87.29340219206048</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1454759478151876</v>
+        <v>0.2978500365279615</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9374631268436578</v>
+        <v>0.8729340219206048</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9362854349169428</v>
+        <v>0.8665570208610778</v>
       </c>
     </row>
     <row r="18">
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.68193496483534</v>
+        <v>86.80057785967007</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2777405754177835</v>
+        <v>0.3918049688992407</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9168193496483534</v>
+        <v>0.8680057785967007</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9102863350752379</v>
+        <v>0.8667519048570005</v>
       </c>
     </row>
     <row r="19">
@@ -796,16 +796,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.92625368731564</v>
+        <v>89.94550125866141</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1286427762850508</v>
+        <v>0.2629595813787697</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9492625368731563</v>
+        <v>0.8994550125866141</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9487971162986018</v>
+        <v>0.8933691272786157</v>
       </c>
     </row>
     <row r="20">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>91.00312286438464</v>
+        <v>79.94212752705474</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2551838225772372</v>
+        <v>0.5672608668988687</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9100312286438464</v>
+        <v>0.7994212752705473</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9053625863225914</v>
+        <v>0.7958152693629948</v>
       </c>
     </row>
     <row r="21">
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>83.01663509199906</v>
+        <v>75.41968356127649</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4669181054147581</v>
+        <v>0.6661206544687351</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8301663509199907</v>
+        <v>0.7541968356127648</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8222715442019247</v>
+        <v>0.7379176218454754</v>
       </c>
     </row>
     <row r="22">
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.5458870751477</v>
+        <v>80.76030069464268</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5019053223294274</v>
+        <v>0.552014468734463</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8454588707514772</v>
+        <v>0.8076030069464268</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8322970151389513</v>
+        <v>0.7938373618600922</v>
       </c>
     </row>
     <row r="23">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>91.59292035398229</v>
+        <v>80.65952127613562</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2392310577570849</v>
+        <v>0.4797744754934684</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9159292035398231</v>
+        <v>0.806595212761356</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9153163796546148</v>
+        <v>0.7998822277225692</v>
       </c>
     </row>
     <row r="24">
@@ -891,16 +891,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92.89085545722715</v>
+        <v>85.96579555186463</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1803977589397618</v>
+        <v>0.3369490421377123</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9289085545722713</v>
+        <v>0.8596579555186464</v>
       </c>
       <c r="E24" t="n">
-        <v>0.927741846801835</v>
+        <v>0.8568182855025338</v>
       </c>
     </row>
     <row r="25">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.8259587020649</v>
+        <v>76.74261888078617</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2529271970192591</v>
+        <v>0.6124287705247601</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9082595870206489</v>
+        <v>0.7674261888078616</v>
       </c>
       <c r="E25" t="n">
-        <v>0.904597201409292</v>
+        <v>0.7474506974557806</v>
       </c>
     </row>
     <row r="26">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>87.0510125520117</v>
+        <v>78.88995579546535</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3290522447451015</v>
+        <v>0.4685109943461915</v>
       </c>
       <c r="D26" t="n">
-        <v>0.870510125520117</v>
+        <v>0.7888995579546536</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8623985799782228</v>
+        <v>0.7690526284898618</v>
       </c>
     </row>
     <row r="27">
@@ -948,16 +948,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>80.70952170866531</v>
+        <v>73.98013823648994</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7615565061108404</v>
+        <v>0.8096119020396145</v>
       </c>
       <c r="D27" t="n">
-        <v>0.807095217086653</v>
+        <v>0.7398013823648993</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8013706980567579</v>
+        <v>0.7356163275314669</v>
       </c>
     </row>
     <row r="28">
@@ -967,16 +967,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.20648967551622</v>
+        <v>73.22866114758779</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7030637133459094</v>
+        <v>0.7926017188156644</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8020648967551622</v>
+        <v>0.7322866114758778</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7868375260859606</v>
+        <v>0.718798262993307</v>
       </c>
     </row>
     <row r="29">
@@ -986,16 +986,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>99.02654867256638</v>
+        <v>95.33992508585713</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03756381273512185</v>
+        <v>0.1276288443540883</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9902654867256636</v>
+        <v>0.9533992508585714</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9902707000037145</v>
+        <v>0.9535437703808191</v>
       </c>
     </row>
     <row r="30">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.46607669616519</v>
+        <v>90.76782671130374</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03368871307862757</v>
+        <v>0.1909119477189961</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9846607669616519</v>
+        <v>0.9076782671130375</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9846168109241681</v>
+        <v>0.8955805787321607</v>
       </c>
     </row>
     <row r="31">
@@ -1024,16 +1024,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.40412979351032</v>
+        <v>97.84660766961652</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06125125610299922</v>
+        <v>0.05980253633588291</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9740412979351032</v>
+        <v>0.9784660766961653</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9738227442227669</v>
+        <v>0.9782814822717075</v>
       </c>
     </row>
     <row r="32">
@@ -1043,16 +1043,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>90.7430312257603</v>
+        <v>82.88144937816648</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2632566832310414</v>
+        <v>0.4462789036718155</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9074303122576032</v>
+        <v>0.8288144937816647</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9033854754650749</v>
+        <v>0.8215882553325901</v>
       </c>
     </row>
     <row r="33">
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.880609051638378</v>
+        <v>6.02700412611371</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1712411493829617</v>
+        <v>0.1724111450069122</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04880609051638376</v>
+        <v>0.06027004126113712</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05228113175531707</v>
+        <v>0.06392626058010029</v>
       </c>
     </row>
   </sheetData>
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.33923303834808</v>
+        <v>80.41938079049126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4271528756339346</v>
+        <v>0.5476167812332278</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8533923303834807</v>
+        <v>0.8041938079049127</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8413584759918578</v>
+        <v>0.7859309649358398</v>
       </c>
     </row>
     <row r="3">
@@ -1146,16 +1146,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.00884955752213</v>
+        <v>83.44501250010813</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1930030108250018</v>
+        <v>0.3833473998626384</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9300884955752211</v>
+        <v>0.8344501250010813</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9261909817427684</v>
+        <v>0.8315135528305577</v>
       </c>
     </row>
     <row r="4">
@@ -1165,16 +1165,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.01769911504425</v>
+        <v>82.62900198098599</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4550823959895449</v>
+        <v>0.4857392451260239</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8601769911504424</v>
+        <v>0.8262900198098599</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8438557958205383</v>
+        <v>0.8095679667124408</v>
       </c>
     </row>
     <row r="5">
@@ -1184,16 +1184,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.41297935103245</v>
+        <v>78.82845007309751</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2816044602824452</v>
+        <v>0.491173792257905</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9041297935103245</v>
+        <v>0.7882845007309751</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9020227289230457</v>
+        <v>0.7825238453907909</v>
       </c>
     </row>
     <row r="6">
@@ -1203,16 +1203,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.39233038348083</v>
+        <v>86.53474511025182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2063241852990662</v>
+        <v>0.4009550921618938</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9339233038348083</v>
+        <v>0.8653474511025182</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9335294359964316</v>
+        <v>0.8635124036954744</v>
       </c>
     </row>
     <row r="7">
@@ -1222,16 +1222,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.03001756070555</v>
+        <v>75.37539252069655</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2458156842001093</v>
+        <v>0.5789166318873564</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9003001756070554</v>
+        <v>0.7537539252069655</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8984545899819045</v>
+        <v>0.7568549250435721</v>
       </c>
     </row>
     <row r="8">
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89.91185044853329</v>
+        <v>73.28290037111047</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2224118570877332</v>
+        <v>0.7086065855233755</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8991185044853329</v>
+        <v>0.7328290037111047</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8944200379685711</v>
+        <v>0.7159301323028882</v>
       </c>
     </row>
     <row r="9">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.78171091445428</v>
+        <v>88.73640775439233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1090395284390373</v>
+        <v>0.2709177138817419</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9578171091445429</v>
+        <v>0.8873640775439234</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9573508676151763</v>
+        <v>0.8863107207390311</v>
       </c>
     </row>
     <row r="10">
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96.60766961651917</v>
+        <v>92.95175563802455</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08659541081476239</v>
+        <v>0.2030345760809344</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9660766961651918</v>
+        <v>0.9295175563802456</v>
       </c>
       <c r="E10" t="n">
-        <v>0.965245146966376</v>
+        <v>0.92933502648842</v>
       </c>
     </row>
     <row r="11">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97.0796460176991</v>
+        <v>92.80979939272831</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08991332092844763</v>
+        <v>0.1844551210803426</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9707964601769911</v>
+        <v>0.9280979939272831</v>
       </c>
       <c r="E11" t="n">
-        <v>0.970268024108691</v>
+        <v>0.9279796333345305</v>
       </c>
     </row>
     <row r="12">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>88.76106194690266</v>
+        <v>81.56913122085831</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3079939595069542</v>
+        <v>0.4479992316104472</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8876106194690265</v>
+        <v>0.815691312208583</v>
       </c>
       <c r="E12" t="n">
-        <v>0.885594385899517</v>
+        <v>0.8153834767510457</v>
       </c>
     </row>
     <row r="13">
@@ -1336,16 +1336,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.71681415929204</v>
+        <v>84.44640524572011</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1696156704691627</v>
+        <v>0.4331445685122162</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9371681415929203</v>
+        <v>0.8444640524572012</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9351284967931981</v>
+        <v>0.8429302920949189</v>
       </c>
     </row>
     <row r="14">
@@ -1355,16 +1355,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.35103244837758</v>
+        <v>78.00326992448031</v>
       </c>
       <c r="C14" t="n">
-        <v>0.266505669360049</v>
+        <v>0.5841728517746863</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8935103244837759</v>
+        <v>0.7800326992448031</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8918401302734376</v>
+        <v>0.7634371470859157</v>
       </c>
     </row>
     <row r="15">
@@ -1374,16 +1374,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80.06505246585178</v>
+        <v>77.5064663189128</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5898905015395333</v>
+        <v>0.5762754020591576</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8006505246585178</v>
+        <v>0.7750646631891279</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7823867468738649</v>
+        <v>0.7636461475744181</v>
       </c>
     </row>
     <row r="16">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.024801252606</v>
+        <v>70.56142354172614</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3276645457255654</v>
+        <v>0.7423606931231916</v>
       </c>
       <c r="D16" t="n">
-        <v>0.87024801252606</v>
+        <v>0.7056142354172614</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8668250106863322</v>
+        <v>0.6941491672642889</v>
       </c>
     </row>
     <row r="17">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.97935103244838</v>
+        <v>90.44991738682862</v>
       </c>
       <c r="C17" t="n">
-        <v>0.166222882506554</v>
+        <v>0.2393245566180364</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9297935103244838</v>
+        <v>0.904499173868286</v>
       </c>
       <c r="E17" t="n">
-        <v>0.928330274018027</v>
+        <v>0.90450541322384</v>
       </c>
     </row>
     <row r="18">
@@ -1431,16 +1431,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.38833380911599</v>
+        <v>82.87588992984368</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2921224205114412</v>
+        <v>0.4749442599325694</v>
       </c>
       <c r="D18" t="n">
-        <v>0.91388333809116</v>
+        <v>0.8287588992984368</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9076822026379217</v>
+        <v>0.8167099145178478</v>
       </c>
     </row>
     <row r="19">
@@ -1450,16 +1450,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.48689867559408</v>
+        <v>88.70708224119586</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1350991898674692</v>
+        <v>0.2917042286018841</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9548689867559407</v>
+        <v>0.8870708224119586</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9546086716759602</v>
+        <v>0.8828345155150596</v>
       </c>
     </row>
     <row r="20">
@@ -1469,16 +1469,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.1278817290807</v>
+        <v>82.70114793380566</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1869057981271908</v>
+        <v>0.4670598339910309</v>
       </c>
       <c r="D20" t="n">
-        <v>0.931278817290807</v>
+        <v>0.8270114793380566</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9293732500569476</v>
+        <v>0.8183051238072967</v>
       </c>
     </row>
     <row r="21">
@@ -1488,16 +1488,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>80.83201411776919</v>
+        <v>71.71065493646138</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5270832030956323</v>
+        <v>0.7351064960317065</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8083201411776919</v>
+        <v>0.7171065493646138</v>
       </c>
       <c r="E21" t="n">
-        <v>0.78793245510752</v>
+        <v>0.7041154248031012</v>
       </c>
     </row>
     <row r="22">
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.06558015207744</v>
+        <v>82.08825335859306</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2600102548565095</v>
+        <v>0.4827863275073468</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9106558015207744</v>
+        <v>0.8208825335859306</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9011845325617278</v>
+        <v>0.8133136050419786</v>
       </c>
     </row>
     <row r="23">
@@ -1526,16 +1526,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>88.43744323047777</v>
+        <v>81.1019991522418</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3020967566592541</v>
+        <v>0.4478201359956681</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8843744323047777</v>
+        <v>0.8110199915224181</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8828168608695768</v>
+        <v>0.8088945730641391</v>
       </c>
     </row>
     <row r="24">
@@ -1545,16 +1545,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.68280002422166</v>
+        <v>85.25610083132207</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2048777735791342</v>
+        <v>0.3819347186790158</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9168280002422167</v>
+        <v>0.8525610083132207</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9168189577073915</v>
+        <v>0.8470662184238262</v>
       </c>
     </row>
     <row r="25">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.58702064896755</v>
+        <v>75.15731104940355</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2762673211245176</v>
+        <v>0.695082497348388</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8958702064896755</v>
+        <v>0.7515731104940354</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8928289826303404</v>
+        <v>0.7334564323588213</v>
       </c>
     </row>
     <row r="26">
@@ -1583,16 +1583,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>88.02359882005899</v>
+        <v>79.92586441059179</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3491312487494724</v>
+        <v>0.5131560210759442</v>
       </c>
       <c r="D26" t="n">
-        <v>0.88023598820059</v>
+        <v>0.7992586441059178</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8664772313889501</v>
+        <v>0.779569324111185</v>
       </c>
     </row>
     <row r="27">
@@ -1602,16 +1602,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>80.53287658197735</v>
+        <v>69.51020337546173</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7565951562640596</v>
+        <v>1.051808059576433</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8053287658197735</v>
+        <v>0.6951020337546173</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7986352938369627</v>
+        <v>0.6706209994365731</v>
       </c>
     </row>
     <row r="28">
@@ -1621,16 +1621,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.17994100294985</v>
+        <v>68.80976479035286</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6400238435191568</v>
+        <v>0.9220310700436434</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8117994100294984</v>
+        <v>0.6880976479035286</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7969843280041612</v>
+        <v>0.6724978344889661</v>
       </c>
     </row>
     <row r="29">
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.73156342182889</v>
+        <v>94.57227138643069</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03700432954069962</v>
+        <v>0.1278201038609647</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9873156342182892</v>
+        <v>0.9457227138643068</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9873709554812082</v>
+        <v>0.9458414979469376</v>
       </c>
     </row>
     <row r="30">
@@ -1659,16 +1659,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.52802359882006</v>
+        <v>96.96217095303594</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02035101117768268</v>
+        <v>0.08109180966154479</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9952802359882005</v>
+        <v>0.9696217095303593</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9952993958642148</v>
+        <v>0.969794276408334</v>
       </c>
     </row>
     <row r="31">
@@ -1678,16 +1678,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.66961651917404</v>
+        <v>97.96736995994775</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05616012355215692</v>
+        <v>0.0622692711757433</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9766961651917404</v>
+        <v>0.9796736995994776</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9763961746368752</v>
+        <v>0.9796280790805125</v>
       </c>
     </row>
     <row r="32">
@@ -1697,16 +1697,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>90.55845638803103</v>
+        <v>82.49651813597005</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2729521463077426</v>
+        <v>0.467088502542502</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9055845638803103</v>
+        <v>0.8249651813597004</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9005736807373165</v>
+        <v>0.8172052878157516</v>
       </c>
     </row>
     <row r="33">
@@ -1716,16 +1716,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.285198890370324</v>
+        <v>7.866278888618736</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1761609369609323</v>
+        <v>0.2290556703624425</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05285198890370324</v>
+        <v>0.07866278888618737</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05768119568014479</v>
+        <v>0.08415041064805685</v>
       </c>
     </row>
   </sheetData>
@@ -1781,16 +1781,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.37497729219112</v>
+        <v>76.12522599676467</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3533202766479614</v>
+        <v>0.6020207455304141</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8737497729219111</v>
+        <v>0.7612522599676468</v>
       </c>
       <c r="E2" t="n">
-        <v>0.859288529028554</v>
+        <v>0.7457605075690326</v>
       </c>
     </row>
     <row r="3">
@@ -1800,16 +1800,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.31493352018616</v>
+        <v>74.83490341611952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4587424497430523</v>
+        <v>0.5892906350704531</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8631493352018615</v>
+        <v>0.7483490341611951</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8484336464576689</v>
+        <v>0.7366085735816974</v>
       </c>
     </row>
     <row r="4">
@@ -1819,16 +1819,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.51622418879056</v>
+        <v>79.30016695646155</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4649537873570807</v>
+        <v>0.5920805613355091</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8551622418879056</v>
+        <v>0.7930016695646156</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8382621377048707</v>
+        <v>0.7714050657815071</v>
       </c>
     </row>
     <row r="5">
@@ -1838,16 +1838,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.79019714703415</v>
+        <v>77.04919592730042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3239079260732979</v>
+        <v>0.5239005801578364</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8679019714703415</v>
+        <v>0.7704919592730042</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8602591978561719</v>
+        <v>0.7534500589070505</v>
       </c>
     </row>
     <row r="6">
@@ -1857,16 +1857,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.90884869246274</v>
+        <v>82.37476102734453</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4038629468763247</v>
+        <v>0.4695626397617161</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8290884869246273</v>
+        <v>0.8237476102734453</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8295158247472836</v>
+        <v>0.8208568509396386</v>
       </c>
     </row>
     <row r="7">
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.0907187778441</v>
+        <v>71.83314734556527</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3128995041052501</v>
+        <v>0.7026767164468766</v>
       </c>
       <c r="D7" t="n">
-        <v>0.870907187778441</v>
+        <v>0.7183314734556527</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8698776761718403</v>
+        <v>0.7146513038786692</v>
       </c>
     </row>
     <row r="8">
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.04994852896651</v>
+        <v>74.69796451526398</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4074245136556177</v>
+        <v>0.6035029783456898</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8404994852896651</v>
+        <v>0.7469796451526397</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8277903031003605</v>
+        <v>0.7392193138245401</v>
       </c>
     </row>
     <row r="9">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94.13083158158807</v>
+        <v>83.6680248099032</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1339356524998341</v>
+        <v>0.3921020579679558</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9413083158158807</v>
+        <v>0.836680248099032</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9414640746018643</v>
+        <v>0.8355576743384571</v>
       </c>
     </row>
     <row r="10">
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94.30678466076697</v>
+        <v>81.90745594685075</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1476659147994117</v>
+        <v>0.4353695484111085</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9430678466076696</v>
+        <v>0.8190745594685076</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9426378675489729</v>
+        <v>0.8051077244262063</v>
       </c>
     </row>
     <row r="11">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>94.15929203539824</v>
+        <v>90.50960648448516</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1494644527614582</v>
+        <v>0.2447866967491184</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9415929203539823</v>
+        <v>0.9050960648448516</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9421556495007956</v>
+        <v>0.9050226239994542</v>
       </c>
     </row>
     <row r="12">
@@ -1971,16 +1971,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>88.14176593223125</v>
+        <v>81.47959757437349</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3161180028323239</v>
+        <v>0.5011221766782303</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8814176593223124</v>
+        <v>0.8147959757437349</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8826214501931998</v>
+        <v>0.8141944965603571</v>
       </c>
     </row>
     <row r="13">
@@ -1990,16 +1990,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.8217891158228</v>
+        <v>85.44156956375055</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2840861782742043</v>
+        <v>0.3868889526464045</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8882178911582279</v>
+        <v>0.8544156956375055</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8823727040163375</v>
+        <v>0.8507529160974301</v>
       </c>
     </row>
     <row r="14">
@@ -2009,16 +2009,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84.54277286135694</v>
+        <v>73.19362624244154</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4134353997578728</v>
+        <v>0.6496405633166432</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8454277286135692</v>
+        <v>0.7319362624244155</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8397036781735162</v>
+        <v>0.7143219162658794</v>
       </c>
     </row>
     <row r="15">
@@ -2028,16 +2028,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80.86341577349285</v>
+        <v>74.01119386845906</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4498346605338156</v>
+        <v>0.6016206145907442</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8086341577349285</v>
+        <v>0.7401119386845907</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7976232223550428</v>
+        <v>0.7380975090256394</v>
       </c>
     </row>
     <row r="16">
@@ -2047,16 +2047,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>81.63522175797368</v>
+        <v>66.20204327027051</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5154566486676534</v>
+        <v>0.9059054772059122</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8163522175797369</v>
+        <v>0.6620204327027051</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8082411748349386</v>
+        <v>0.6343753601476182</v>
       </c>
     </row>
     <row r="17">
@@ -2066,16 +2066,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.00779418507081</v>
+        <v>84.87781036168133</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2232197761904293</v>
+        <v>0.4018188997831506</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9100779418507081</v>
+        <v>0.8487781036168134</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9083351212771882</v>
+        <v>0.8456279101356772</v>
       </c>
     </row>
     <row r="18">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>85.73257554131091</v>
+        <v>80.99421275270547</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3561058430618724</v>
+        <v>0.4547643646840395</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8573257554131091</v>
+        <v>0.8099421275270547</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8559503528508851</v>
+        <v>0.8106954080128729</v>
       </c>
     </row>
     <row r="19">
@@ -2104,16 +2104,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.71038676805162</v>
+        <v>87.70534347182934</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2178693001595093</v>
+        <v>0.3425297848763876</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9071038676805163</v>
+        <v>0.8770534347182934</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9075007227574641</v>
+        <v>0.8778240413132796</v>
       </c>
     </row>
     <row r="20">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.05829635204456</v>
+        <v>79.84567340547929</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2863625949597918</v>
+        <v>0.5538690509895484</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8905829635204456</v>
+        <v>0.7984567340547929</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8879175977607332</v>
+        <v>0.7966279593944827</v>
       </c>
     </row>
     <row r="21">
@@ -2142,16 +2142,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>76.68085364060242</v>
+        <v>68.5584650386249</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7130681899065773</v>
+        <v>0.818756217462942</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7668085364060243</v>
+        <v>0.6855846503862491</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7471549266352796</v>
+        <v>0.6716787099644308</v>
       </c>
     </row>
     <row r="22">
@@ -2161,16 +2161,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.96129724305572</v>
+        <v>78.0767999723181</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4648689587057258</v>
+        <v>0.6515383928393323</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8596129724305573</v>
+        <v>0.780767999723181</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8406964410398009</v>
+        <v>0.7613143248125154</v>
       </c>
     </row>
     <row r="23">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>85.19174041297936</v>
+        <v>78.8903018192199</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3729460491954039</v>
+        <v>0.5501205520704389</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8519174041297936</v>
+        <v>0.7889030181921989</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8448866176031714</v>
+        <v>0.7687276444622634</v>
       </c>
     </row>
     <row r="24">
@@ -2199,16 +2199,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>88.28943156947724</v>
+        <v>79.45959740136161</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3041542079804155</v>
+        <v>0.467789994017221</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8828943156947725</v>
+        <v>0.794595974013616</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8824535784730527</v>
+        <v>0.7950609391942332</v>
       </c>
     </row>
     <row r="25">
@@ -2218,16 +2218,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.11104767342279</v>
+        <v>75.18369536068651</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3419141253922134</v>
+        <v>0.6558551750766733</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8711104767342277</v>
+        <v>0.7518369536068651</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8671208428093096</v>
+        <v>0.7247772151840961</v>
       </c>
     </row>
     <row r="26">
@@ -2237,16 +2237,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>88.55491829514096</v>
+        <v>75.50402685144336</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2752247656685843</v>
+        <v>0.6303709212457761</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8855491829514095</v>
+        <v>0.7550402685144335</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8830220883583986</v>
+        <v>0.7285120110926309</v>
       </c>
     </row>
     <row r="27">
@@ -2256,16 +2256,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>80.97397036306543</v>
+        <v>71.25122189638319</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8071013738241769</v>
+        <v>0.9348014388233423</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8097397036306543</v>
+        <v>0.7125122189638319</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8060623342464824</v>
+        <v>0.7046980869039026</v>
       </c>
     </row>
     <row r="28">
@@ -2275,16 +2275,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.41124058166594</v>
+        <v>65.56475402036349</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6892009768343996</v>
+        <v>0.9352906592500707</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7941124058166593</v>
+        <v>0.655647540203635</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7787979217809277</v>
+        <v>0.6358332220364831</v>
       </c>
     </row>
     <row r="29">
@@ -2294,16 +2294,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>95.54572271386431</v>
+        <v>88.79229059074905</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1234876044696042</v>
+        <v>0.2505123110837303</v>
       </c>
       <c r="D29" t="n">
-        <v>0.955457227138643</v>
+        <v>0.8879229059074906</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9557748293783025</v>
+        <v>0.883186402502407</v>
       </c>
     </row>
     <row r="30">
@@ -2313,16 +2313,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>89.1740412979351</v>
+        <v>85.00012975890795</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3025479102589694</v>
+        <v>0.3434560438268818</v>
       </c>
       <c r="D30" t="n">
-        <v>0.891740412979351</v>
+        <v>0.8500012975890796</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8718211235425777</v>
+        <v>0.8325001478661639</v>
       </c>
     </row>
     <row r="31">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.81710914454277</v>
+        <v>96.84850214967257</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06848737965715372</v>
+        <v>0.1034770204949988</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9781710914454278</v>
+        <v>0.9684850214967258</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9780762775723361</v>
+        <v>0.9683849711333012</v>
       </c>
     </row>
     <row r="32">
@@ -2351,16 +2351,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.26227158827787</v>
+        <v>78.97271025989266</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3560555790283328</v>
+        <v>0.5431807256913049</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8726227158827786</v>
+        <v>0.7897271025989269</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8661939304125776</v>
+        <v>0.7794943629783971</v>
       </c>
     </row>
     <row r="33">
@@ -2370,16 +2370,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.823896697233164</v>
+        <v>7.038969612253653</v>
       </c>
       <c r="C33" t="n">
-        <v>0.168782727802747</v>
+        <v>0.1955112385069055</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04823896697233165</v>
+        <v>0.07038969612253654</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0523753186543728</v>
+        <v>0.07589628746332122</v>
       </c>
     </row>
   </sheetData>
@@ -2435,16 +2435,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.74369155442521</v>
+        <v>69.97041496898763</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4392883500239502</v>
+        <v>0.8296038909310786</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8074369155442522</v>
+        <v>0.6997041496898763</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8043850266751813</v>
+        <v>0.6555493478205394</v>
       </c>
     </row>
     <row r="3">
@@ -2454,16 +2454,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.51825707834843</v>
+        <v>67.73786970475524</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5869328643505771</v>
+        <v>0.785380070656538</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8051825707834842</v>
+        <v>0.6773786970475524</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7902840754241531</v>
+        <v>0.6597071252551402</v>
       </c>
     </row>
     <row r="4">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.91305288108029</v>
+        <v>72.9135200131489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6148578030678133</v>
+        <v>0.7711486529558897</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7891305288108029</v>
+        <v>0.729135200131489</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7749282538892277</v>
+        <v>0.713366079830003</v>
       </c>
     </row>
     <row r="5">
@@ -2492,16 +2492,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.30135208782083</v>
+        <v>65.57798942897429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5719877977632374</v>
+        <v>0.8000750849644342</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7630135208782083</v>
+        <v>0.655779894289743</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7573840445310538</v>
+        <v>0.6279638149986349</v>
       </c>
     </row>
     <row r="6">
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.37239076462599</v>
+        <v>66.25126514935251</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8639261891444525</v>
+        <v>0.8052603284517923</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6837239076462599</v>
+        <v>0.662512651493525</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6727394312196894</v>
+        <v>0.6470749395852567</v>
       </c>
     </row>
     <row r="7">
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.05175650308394</v>
+        <v>60.56583534459641</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7294658552855253</v>
+        <v>0.9932866091529527</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7305175650308394</v>
+        <v>0.6056583534459641</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7262361244089638</v>
+        <v>0.5872008916181153</v>
       </c>
     </row>
     <row r="8">
@@ -2549,16 +2549,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.0197579563837</v>
+        <v>76.11181757627661</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3799563217146594</v>
+        <v>0.7481596853661661</v>
       </c>
       <c r="D8" t="n">
-        <v>0.840197579563837</v>
+        <v>0.7611181757627661</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8400179763567553</v>
+        <v>0.7494271135509251</v>
       </c>
     </row>
     <row r="9">
@@ -2568,16 +2568,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.68348342113686</v>
+        <v>87.02895353766037</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2438542642570004</v>
+        <v>0.3113498551305384</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9068348342113687</v>
+        <v>0.8702895353766035</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9067136602014813</v>
+        <v>0.8696228560809143</v>
       </c>
     </row>
     <row r="10">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.07978442720093</v>
+        <v>81.15822801235305</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4984339452542675</v>
+        <v>0.5138494292351727</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8307978442720092</v>
+        <v>0.8115822801235305</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8098524036156508</v>
+        <v>0.7970519153051789</v>
       </c>
     </row>
     <row r="11">
@@ -2606,16 +2606,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.72026574624348</v>
+        <v>73.34068633811712</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4519265930478771</v>
+        <v>0.596056048758328</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8272026574624348</v>
+        <v>0.7334068633811711</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8241721718316593</v>
+        <v>0.73139312154008</v>
       </c>
     </row>
     <row r="12">
@@ -2625,16 +2625,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78.85232571216014</v>
+        <v>73.17693059628543</v>
       </c>
       <c r="C12" t="n">
-        <v>0.559437946540614</v>
+        <v>0.6665098991245031</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7885232571216013</v>
+        <v>0.7317693059628544</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7789741903334226</v>
+        <v>0.7109638124843644</v>
       </c>
     </row>
     <row r="13">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.0083132207026</v>
+        <v>73.89095061375963</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5074524121979873</v>
+        <v>0.7411625504493713</v>
       </c>
       <c r="D13" t="n">
-        <v>0.810083132207026</v>
+        <v>0.7389095061375963</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8039230149248112</v>
+        <v>0.723832287351084</v>
       </c>
     </row>
     <row r="14">
@@ -2663,16 +2663,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78.20681839808303</v>
+        <v>76.00169551639721</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6578073226749742</v>
+        <v>0.639990312140435</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7820681839808303</v>
+        <v>0.7600169551639719</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7635519055012648</v>
+        <v>0.7341555717327377</v>
       </c>
     </row>
     <row r="15">
@@ -2682,16 +2682,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73.86214413619494</v>
+        <v>67.75543041029766</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6470247427622478</v>
+        <v>0.7850843890880546</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7386214413619495</v>
+        <v>0.6775543041029767</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7340717140327461</v>
+        <v>0.6587401552699268</v>
       </c>
     </row>
     <row r="16">
@@ -2701,16 +2701,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.06291576916756</v>
+        <v>66.91364112146299</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8352773648997148</v>
+        <v>0.9068392686545849</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7306291576916755</v>
+        <v>0.6691364112146299</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7103763424770394</v>
+        <v>0.6447120668385532</v>
       </c>
     </row>
     <row r="17">
@@ -2720,16 +2720,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>78.11814981098453</v>
+        <v>74.90696286300054</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5768909669481218</v>
+        <v>0.6286319331576428</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7811814981098453</v>
+        <v>0.7490696286300055</v>
       </c>
       <c r="E17" t="n">
-        <v>0.777263424589474</v>
+        <v>0.7436017262260398</v>
       </c>
     </row>
     <row r="18">
@@ -2739,16 +2739,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>72.44171662384623</v>
+        <v>68.75578508464606</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6491137320796649</v>
+        <v>0.7116877321153879</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7244171662384622</v>
+        <v>0.6875578508464606</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7140210602159134</v>
+        <v>0.6664537436372696</v>
       </c>
     </row>
     <row r="19">
@@ -2758,16 +2758,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.80389968771355</v>
+        <v>76.29685377901193</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4711533026148875</v>
+        <v>0.5977818466722965</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8080389968771357</v>
+        <v>0.7629685377901193</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8054381629317137</v>
+        <v>0.7613196193000136</v>
       </c>
     </row>
     <row r="20">
@@ -2777,16 +2777,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>77.98657427832421</v>
+        <v>70.53503923044318</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6039490217963854</v>
+        <v>0.8008411359041929</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7798657427832421</v>
+        <v>0.7053503923044318</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7724736196662663</v>
+        <v>0.698553418228536</v>
       </c>
     </row>
     <row r="21">
@@ -2796,16 +2796,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>71.35494251680377</v>
+        <v>64.18939610204241</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8272799787189191</v>
+        <v>1.166806852895145</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7135494251680378</v>
+        <v>0.6418939610204241</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7086605278070877</v>
+        <v>0.6076461918179099</v>
       </c>
     </row>
     <row r="22">
@@ -2815,16 +2815,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.07770828467375</v>
+        <v>80.87639166428775</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4652009368563691</v>
+        <v>0.5538893334567547</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8307770828467375</v>
+        <v>0.8087639166428776</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8189282997832951</v>
+        <v>0.7974056120144331</v>
       </c>
     </row>
     <row r="23">
@@ -2834,16 +2834,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>66.10749227934498</v>
+        <v>61.57112085744686</v>
       </c>
       <c r="C23" t="n">
-        <v>1.044099597322444</v>
+        <v>0.9620980436603228</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6610749227934498</v>
+        <v>0.6157112085744687</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6418190061851259</v>
+        <v>0.6056850685470119</v>
       </c>
     </row>
     <row r="24">
@@ -2853,16 +2853,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71.6164499692904</v>
+        <v>68.63986712687826</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7005384107120335</v>
+        <v>0.8322411994139353</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7161644996929039</v>
+        <v>0.6863986712687826</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7094346695713505</v>
+        <v>0.6641086904066146</v>
       </c>
     </row>
     <row r="25">
@@ -2872,16 +2872,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.78358809332261</v>
+        <v>62.02908329656831</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7093313393493493</v>
+        <v>1.110720455398162</v>
       </c>
       <c r="D25" t="n">
-        <v>0.727835880933226</v>
+        <v>0.6202908329656831</v>
       </c>
       <c r="E25" t="n">
-        <v>0.716342372290961</v>
+        <v>0.5778405021095611</v>
       </c>
     </row>
     <row r="26">
@@ -2891,16 +2891,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.06487080338066</v>
+        <v>74.14346144862846</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4859570883369694</v>
+        <v>0.5982422176127632</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7906487080338065</v>
+        <v>0.7414346144862844</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7885959076014815</v>
+        <v>0.7294020517265354</v>
       </c>
     </row>
     <row r="27">
@@ -2910,16 +2910,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.70361335305668</v>
+        <v>70.70043858510887</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8285958462317163</v>
+        <v>0.967315017975246</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7770361335305669</v>
+        <v>0.7070043858510886</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7684417215348309</v>
+        <v>0.6901241303991992</v>
       </c>
     </row>
     <row r="28">
@@ -2929,16 +2929,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.96962776494607</v>
+        <v>65.86164240175088</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9172531077638268</v>
+        <v>0.8588774491101503</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6896962776494606</v>
+        <v>0.6586164240175088</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6681748586202018</v>
+        <v>0.6414347361727484</v>
       </c>
     </row>
     <row r="29">
@@ -2948,16 +2948,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>91.50442477876106</v>
+        <v>82.27899895327815</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2223282612035594</v>
+        <v>0.3998721180173258</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9150442477876106</v>
+        <v>0.8227899895327815</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9148486528930437</v>
+        <v>0.8194510227483949</v>
       </c>
     </row>
     <row r="30">
@@ -2967,16 +2967,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>83.89397832161178</v>
+        <v>82.9550428636926</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4701369130067178</v>
+        <v>0.3727599583309105</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8389397832161178</v>
+        <v>0.829550428636926</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8237033672505781</v>
+        <v>0.8211724869808943</v>
       </c>
     </row>
     <row r="31">
@@ -2986,16 +2986,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.49557522123894</v>
+        <v>95.73499770759263</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0647642546823287</v>
+        <v>0.1481189069338143</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9849557522123893</v>
+        <v>0.9573499770759263</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9848770037077058</v>
+        <v>0.9574468613931867</v>
       </c>
     </row>
     <row r="32">
@@ -3005,16 +3005,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.57729738146524</v>
+        <v>72.59567700989342</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5874740843536065</v>
+        <v>0.7201213425237963</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7857729738146524</v>
+        <v>0.725956770098934</v>
       </c>
       <c r="E32" t="n">
-        <v>0.777021099669071</v>
+        <v>0.7097468986989934</v>
       </c>
     </row>
     <row r="33">
@@ -3024,16 +3024,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.974536636683756</v>
+        <v>7.837195212874968</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2087981592382353</v>
+        <v>0.2242132032816165</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06974536636683758</v>
+        <v>0.07837195212874967</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07308542834694975</v>
+        <v>0.08551990507396248</v>
       </c>
     </row>
   </sheetData>
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.36208790733484</v>
+        <v>69.38736494260331</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5290139089028041</v>
+        <v>0.7039545758937795</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7736208790733483</v>
+        <v>0.6938736494260331</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7703965663072083</v>
+        <v>0.6801723754808963</v>
       </c>
     </row>
     <row r="3">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.88226541752091</v>
+        <v>59.74247182069049</v>
       </c>
       <c r="C3" t="n">
-        <v>0.747010201588273</v>
+        <v>0.9489166870713234</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6988226541752092</v>
+        <v>0.5974247182069049</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6773742011314625</v>
+        <v>0.5631077831721444</v>
       </c>
     </row>
     <row r="4">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.45387935881799</v>
+        <v>58.26304725819428</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7585322255889575</v>
+        <v>1.456763010262512</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6845387935881798</v>
+        <v>0.5826304725819428</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6829283387024423</v>
+        <v>0.5275719081095068</v>
       </c>
     </row>
     <row r="5">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69.83330305625481</v>
+        <v>63.41975276602739</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8317236264546712</v>
+        <v>0.8011516250669957</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6983330305625481</v>
+        <v>0.6341975276602738</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6792940837910325</v>
+        <v>0.6122985037434953</v>
       </c>
     </row>
     <row r="6">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.10550264275643</v>
+        <v>50.86376179724738</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9356479485829672</v>
+        <v>1.057178770005703</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5610550264275642</v>
+        <v>0.5086376179724738</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5551471046379255</v>
+        <v>0.4714144591450689</v>
       </c>
     </row>
     <row r="7">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.19400686857152</v>
+        <v>53.50721026998504</v>
       </c>
       <c r="C7" t="n">
-        <v>1.036864719291528</v>
+        <v>1.082958009839058</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5719400686857152</v>
+        <v>0.5350721026998503</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5611507098131912</v>
+        <v>0.5127274846996644</v>
       </c>
     </row>
     <row r="8">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.35685429804757</v>
+        <v>66.17142016799453</v>
       </c>
       <c r="C8" t="n">
-        <v>0.750360231656426</v>
+        <v>0.8992732112683978</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7235685429804756</v>
+        <v>0.6617142016799453</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7228072483905627</v>
+        <v>0.6262825054803051</v>
       </c>
     </row>
     <row r="9">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.78115727644703</v>
+        <v>79.16045986556978</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5294412404454003</v>
+        <v>0.5688719925160209</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8178115727644701</v>
+        <v>0.7916045986556977</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8169729576420763</v>
+        <v>0.7909585251116213</v>
       </c>
     </row>
     <row r="10">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82.63765257484927</v>
+        <v>74.01707627228609</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5262779757302875</v>
+        <v>0.6447858390708764</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8263765257484927</v>
+        <v>0.740170762722861</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8252933387665392</v>
+        <v>0.7394740814263808</v>
       </c>
     </row>
     <row r="11">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>63.86370124309034</v>
+        <v>63.13575376949628</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9460968732833862</v>
+        <v>0.8232062061627706</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6386370124309033</v>
+        <v>0.6313575376949627</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6187636032938497</v>
+        <v>0.611806589711716</v>
       </c>
     </row>
     <row r="12">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>72.70322407633283</v>
+        <v>66.84097613301154</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6444155345360437</v>
+        <v>0.8034721096356711</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7270322407633284</v>
+        <v>0.6684097613301153</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7175884507028722</v>
+        <v>0.653831209038752</v>
       </c>
     </row>
     <row r="13">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.50626735525394</v>
+        <v>69.27646432927619</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7283825458337863</v>
+        <v>0.8481989773611229</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7450626735525393</v>
+        <v>0.692764643292762</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7254190593245611</v>
+        <v>0.6735597066910607</v>
       </c>
     </row>
     <row r="14">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73.28731217398074</v>
+        <v>71.90589883995537</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7838999199370543</v>
+        <v>0.9039715299538026</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7328731217398075</v>
+        <v>0.7190589883995536</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7149805235268201</v>
+        <v>0.6877264720676741</v>
       </c>
     </row>
     <row r="15">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61.45364579278368</v>
+        <v>65.60506578776634</v>
       </c>
       <c r="C15" t="n">
-        <v>1.096217661599318</v>
+        <v>0.8415541097521781</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6145364579278367</v>
+        <v>0.6560506578776633</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5827769154869249</v>
+        <v>0.6541431423207502</v>
       </c>
     </row>
     <row r="16">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.5603508680871</v>
+        <v>62.1730291784531</v>
       </c>
       <c r="C16" t="n">
-        <v>1.173575871934493</v>
+        <v>1.037378638361891</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5656035086808708</v>
+        <v>0.621730291784531</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5515827757725136</v>
+        <v>0.5829362365362404</v>
       </c>
     </row>
     <row r="17">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66.32842844661286</v>
+        <v>63.77139940656925</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9162699544957528</v>
+        <v>0.9640646329770485</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6632842844661286</v>
+        <v>0.6377139940656926</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6500876290230584</v>
+        <v>0.6224855570855796</v>
       </c>
     </row>
     <row r="18">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>64.01153989221361</v>
+        <v>62.75573318108288</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8623441035548846</v>
+        <v>0.8915727138519287</v>
       </c>
       <c r="D18" t="n">
-        <v>0.640115398922136</v>
+        <v>0.6275573318108287</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6266934799478628</v>
+        <v>0.5894171169504085</v>
       </c>
     </row>
     <row r="19">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.90936772809454</v>
+        <v>75.18334933693198</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6823232899109523</v>
+        <v>0.6058974273502826</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7290936772809454</v>
+        <v>0.7518334933693198</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7219910759057735</v>
+        <v>0.750053637807009</v>
       </c>
     </row>
     <row r="20">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.50971894220538</v>
+        <v>71.25078936669003</v>
       </c>
       <c r="C20" t="n">
-        <v>0.743899242579937</v>
+        <v>0.7503218874335289</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7350971894220538</v>
+        <v>0.7125078936669003</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7264195833361449</v>
+        <v>0.7059412820338714</v>
       </c>
     </row>
     <row r="21">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63.73662401923892</v>
+        <v>63.0156835266741</v>
       </c>
       <c r="C21" t="n">
-        <v>1.251231116227185</v>
+        <v>1.036240955814719</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6373662401923892</v>
+        <v>0.6301568352667412</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6128500366498952</v>
+        <v>0.6203110863733352</v>
       </c>
     </row>
     <row r="22">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.99613318454313</v>
+        <v>74.83178920232874</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4851589643706878</v>
+        <v>0.7728638374557097</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8299613318454313</v>
+        <v>0.7483178920232874</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8232457741787215</v>
+        <v>0.7335350798386061</v>
       </c>
     </row>
     <row r="23">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>63.51646640541874</v>
+        <v>56.29953546310954</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8763717909653982</v>
+        <v>1.10151083295544</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6351646640541874</v>
+        <v>0.5629953546310954</v>
       </c>
       <c r="E23" t="n">
-        <v>0.620570119179696</v>
+        <v>0.5333245176542553</v>
       </c>
     </row>
     <row r="24">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>66.38335971764462</v>
+        <v>62.3646398325245</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8555095483859378</v>
+        <v>0.9863872705648342</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6638335971764462</v>
+        <v>0.623646398325245</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6560010925214685</v>
+        <v>0.6059318161667153</v>
       </c>
     </row>
     <row r="25">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.1474061194301</v>
+        <v>57.79340651735741</v>
       </c>
       <c r="C25" t="n">
-        <v>1.041038450102012</v>
+        <v>1.031906388203303</v>
       </c>
       <c r="D25" t="n">
-        <v>0.601474061194301</v>
+        <v>0.5779340651735743</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5796398699490686</v>
+        <v>0.5566784889750842</v>
       </c>
     </row>
     <row r="26">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>68.89393506864246</v>
+        <v>70.69697834756356</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8622300799858447</v>
+        <v>0.7467265230913956</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6889393506864246</v>
+        <v>0.7069697834756357</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6736853661630805</v>
+        <v>0.6779927058277524</v>
       </c>
     </row>
     <row r="27">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>70.25000216264847</v>
+        <v>67.19738060017821</v>
       </c>
       <c r="C27" t="n">
-        <v>1.001284194898714</v>
+        <v>0.9542967527483901</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7025000216264846</v>
+        <v>0.6719738060017819</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6991762056310927</v>
+        <v>0.6533010216228335</v>
       </c>
     </row>
     <row r="28">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.67731554771235</v>
+        <v>55.08058028183634</v>
       </c>
       <c r="C28" t="n">
-        <v>1.086604559949289</v>
+        <v>1.104191368243967</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5767731554771235</v>
+        <v>0.5508058028183636</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5428129085974741</v>
+        <v>0.5212574100399069</v>
       </c>
     </row>
     <row r="29">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.20069377762783</v>
+        <v>73.67996262943451</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5643154970059793</v>
+        <v>0.6409965770939986</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8020069377762784</v>
+        <v>0.736799626294345</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7982692744502713</v>
+        <v>0.7266813736177389</v>
       </c>
     </row>
     <row r="30">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>83.25262329258904</v>
+        <v>77.26208704227545</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3810235931878803</v>
+        <v>0.5678498098277487</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8325262329258903</v>
+        <v>0.7726208704227545</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8223140991324753</v>
+        <v>0.7514654225413763</v>
       </c>
     </row>
     <row r="31">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.43637920743258</v>
+        <v>93.87901279422832</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1291609119235848</v>
+        <v>0.1960946427813421</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9543637920743258</v>
+        <v>0.9387901279422832</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9540958480698919</v>
+        <v>0.9383620694977498</v>
       </c>
     </row>
     <row r="32">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70.24104014740611</v>
+        <v>66.61773602424473</v>
       </c>
       <c r="C32" t="n">
-        <v>0.791874192763648</v>
+        <v>0.8590852304205246</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7024104014740612</v>
+        <v>0.6661773602424472</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6903442746675318</v>
+        <v>0.6458249856255834</v>
       </c>
     </row>
     <row r="33">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.230408727130298</v>
+        <v>8.741578815509184</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2444119906355643</v>
+        <v>0.2264080144234399</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09230408727130297</v>
+        <v>0.08741578815509185</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09768108376801529</v>
+        <v>0.09624212447660478</v>
       </c>
     </row>
   </sheetData>
@@ -3743,16 +3743,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.82216974195278</v>
+        <v>60.58356906201611</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8247426579395931</v>
+        <v>0.899556040018797</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6282216974195279</v>
+        <v>0.6058356906201611</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6192449919216163</v>
+        <v>0.5889576924231111</v>
       </c>
     </row>
     <row r="3">
@@ -3762,16 +3762,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.62601752610317</v>
+        <v>53.99458472824159</v>
       </c>
       <c r="C3" t="n">
-        <v>1.195883038640022</v>
+        <v>1.085677021245162</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4762601752610317</v>
+        <v>0.5399458472824159</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4332795693670807</v>
+        <v>0.5103943544785101</v>
       </c>
     </row>
     <row r="4">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.60157094784557</v>
+        <v>54.52728829834168</v>
       </c>
       <c r="C4" t="n">
-        <v>1.156177893777688</v>
+        <v>1.225687710444133</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5160157094784557</v>
+        <v>0.5452728829834168</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4850198168898297</v>
+        <v>0.5141820479605628</v>
       </c>
     </row>
     <row r="5">
@@ -3800,16 +3800,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.78758466768744</v>
+        <v>57.53233159456397</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9613472275435925</v>
+        <v>0.8997621903816858</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5478758466768744</v>
+        <v>0.5753233159456397</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5252605277486466</v>
+        <v>0.5659912118349778</v>
       </c>
     </row>
     <row r="6">
@@ -3819,16 +3819,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.63728924990701</v>
+        <v>54.60869038659504</v>
       </c>
       <c r="C6" t="n">
-        <v>1.339513018727303</v>
+        <v>0.9809301664431889</v>
       </c>
       <c r="D6" t="n">
-        <v>0.40637289249907</v>
+        <v>0.5460869038659504</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3497353316016477</v>
+        <v>0.5306451515319465</v>
       </c>
     </row>
     <row r="7">
@@ -3838,16 +3838,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.31922421474234</v>
+        <v>48.07282069914099</v>
       </c>
       <c r="C7" t="n">
-        <v>1.247660031914711</v>
+        <v>1.127129326264064</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4231922421474234</v>
+        <v>0.4807282069914099</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3901419463171124</v>
+        <v>0.4427174816394756</v>
       </c>
     </row>
     <row r="8">
@@ -3857,16 +3857,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70.01340842048806</v>
+        <v>73.422434450125</v>
       </c>
       <c r="C8" t="n">
-        <v>0.794158379950871</v>
+        <v>0.7019468541877966</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7001340842048807</v>
+        <v>0.7342243445012501</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6983400947090634</v>
+        <v>0.7291353637962513</v>
       </c>
     </row>
     <row r="9">
@@ -3876,16 +3876,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74.86353688180694</v>
+        <v>73.38445834306525</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6329915627837182</v>
+        <v>0.7118041822531571</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7486353688180694</v>
+        <v>0.7338445834306525</v>
       </c>
       <c r="E9" t="n">
-        <v>0.747864703556625</v>
+        <v>0.7282716077051014</v>
       </c>
     </row>
     <row r="10">
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.17537348939005</v>
+        <v>75.95463628578102</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6239347979426384</v>
+        <v>0.597682658272485</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7317537348939005</v>
+        <v>0.7595463628578102</v>
       </c>
       <c r="E10" t="n">
-        <v>0.73028144519587</v>
+        <v>0.7584288564105941</v>
       </c>
     </row>
     <row r="11">
@@ -3914,16 +3914,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>58.43502106419605</v>
+        <v>48.83268886409052</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9209621806939442</v>
+        <v>1.067969221870104</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5843502106419606</v>
+        <v>0.4883268886409052</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5671685670508043</v>
+        <v>0.4497007272239572</v>
       </c>
     </row>
     <row r="12">
@@ -3933,16 +3933,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.15659305011288</v>
+        <v>61.00666960786858</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8066132366657257</v>
+        <v>0.8214689999818802</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6215659305011288</v>
+        <v>0.6100666960786858</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6086031038671781</v>
+        <v>0.5987805571412215</v>
       </c>
     </row>
     <row r="13">
@@ -3952,16 +3952,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.79560376819869</v>
+        <v>63.20478550852516</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9521348247925442</v>
+        <v>0.9274999241034191</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6179560376819868</v>
+        <v>0.6320478550852516</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6200736527128153</v>
+        <v>0.6253310470468294</v>
       </c>
     </row>
     <row r="14">
@@ -3971,16 +3971,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63.31534009809774</v>
+        <v>54.47131895604633</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9147635082403818</v>
+        <v>1.130367820213238</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6331534009809774</v>
+        <v>0.5447131895604633</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6057744648441197</v>
+        <v>0.4960823806644035</v>
       </c>
     </row>
     <row r="15">
@@ -3990,16 +3990,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44.41638768501458</v>
+        <v>60.82734279708302</v>
       </c>
       <c r="C15" t="n">
-        <v>1.209736486275991</v>
+        <v>1.012958939870199</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4441638768501457</v>
+        <v>0.6082734279708302</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4059258348858896</v>
+        <v>0.5861018408741796</v>
       </c>
     </row>
     <row r="16">
@@ -4009,16 +4009,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.04280313843545</v>
+        <v>49.04229275339752</v>
       </c>
       <c r="C16" t="n">
-        <v>1.188607839743296</v>
+        <v>1.244370240966479</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4804280313843545</v>
+        <v>0.4904229275339752</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4577299308004251</v>
+        <v>0.4620242363458855</v>
       </c>
     </row>
     <row r="17">
@@ -4028,16 +4028,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>54.73386447979654</v>
+        <v>60.18140295331275</v>
       </c>
       <c r="C17" t="n">
-        <v>1.082950918873151</v>
+        <v>1.090344803035259</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5473386447979653</v>
+        <v>0.6018140295331275</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5359501832553967</v>
+        <v>0.5764356805172423</v>
       </c>
     </row>
     <row r="18">
@@ -4047,16 +4047,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>57.79790482616632</v>
+        <v>56.90109776036125</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9623211070895195</v>
+        <v>0.8659388666351637</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5779790482616631</v>
+        <v>0.5690109776036125</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5601402295369727</v>
+        <v>0.5515134798795648</v>
       </c>
     </row>
     <row r="19">
@@ -4066,16 +4066,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.89650429501985</v>
+        <v>61.21298627150755</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8027426213026047</v>
+        <v>0.8155933757623037</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6589650429501985</v>
+        <v>0.6121298627150754</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6502136293109505</v>
+        <v>0.6082683680061776</v>
       </c>
     </row>
     <row r="20">
@@ -4085,16 +4085,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.76090623621312</v>
+        <v>53.32796996513811</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9960673386851946</v>
+        <v>1.127243248621623</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6076090623621312</v>
+        <v>0.533279699651381</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6074936440600879</v>
+        <v>0.5277634553284745</v>
       </c>
     </row>
     <row r="21">
@@ -4104,16 +4104,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>59.21764029100598</v>
+        <v>53.32762394138358</v>
       </c>
       <c r="C21" t="n">
-        <v>1.172736958662669</v>
+        <v>1.128619704395533</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5921764029100598</v>
+        <v>0.5332762394138357</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5585370692769011</v>
+        <v>0.4931157599307278</v>
       </c>
     </row>
     <row r="22">
@@ -4123,16 +4123,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.2138426803</v>
+        <v>72.15520895509476</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8463231720030308</v>
+        <v>0.8489879903693994</v>
       </c>
       <c r="D22" t="n">
-        <v>0.702138426803</v>
+        <v>0.7215520895509477</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6892897929668151</v>
+        <v>0.6963598542695448</v>
       </c>
     </row>
     <row r="23">
@@ -4142,16 +4142,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>54.43957127656813</v>
+        <v>55.98024204361629</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9773331558331847</v>
+        <v>0.9579200088977814</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5443957127656814</v>
+        <v>0.5598024204361629</v>
       </c>
       <c r="E23" t="n">
-        <v>0.523889694826867</v>
+        <v>0.5458581646341123</v>
       </c>
     </row>
     <row r="24">
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.97660879419372</v>
+        <v>49.19350513412746</v>
       </c>
       <c r="C24" t="n">
-        <v>1.054214070240656</v>
+        <v>1.052859225869179</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5597660879419373</v>
+        <v>0.4919350513412746</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5441956795098838</v>
+        <v>0.4700874717402311</v>
       </c>
     </row>
     <row r="25">
@@ -4180,16 +4180,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.56134568638137</v>
+        <v>46.69962542928572</v>
       </c>
       <c r="C25" t="n">
-        <v>1.070169541239739</v>
+        <v>1.364760627845923</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5156134568638138</v>
+        <v>0.4669962542928572</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5055503285801464</v>
+        <v>0.4155843821393358</v>
       </c>
     </row>
     <row r="26">
@@ -4199,16 +4199,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>61.51333489044023</v>
+        <v>58.7135701865933</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9330169613162675</v>
+        <v>1.025201387827595</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6151333489044022</v>
+        <v>0.5871357018659331</v>
       </c>
       <c r="E26" t="n">
-        <v>0.601622018209364</v>
+        <v>0.5582530660277112</v>
       </c>
     </row>
     <row r="27">
@@ -4218,16 +4218,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>57.04218894627117</v>
+        <v>54.79493767247121</v>
       </c>
       <c r="C27" t="n">
-        <v>1.197126655156414</v>
+        <v>1.253823390603066</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5704218894627117</v>
+        <v>0.5479493767247121</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5486903070382142</v>
+        <v>0.5236552208069354</v>
       </c>
     </row>
     <row r="28">
@@ -4237,16 +4237,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.77363991037985</v>
+        <v>56.16026090191092</v>
       </c>
       <c r="C28" t="n">
-        <v>1.104247072835763</v>
+        <v>0.9617547715703646</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5277363991037984</v>
+        <v>0.5616026090191092</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4972928728768327</v>
+        <v>0.5378168043393812</v>
       </c>
     </row>
     <row r="29">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>69.43926850578292</v>
+        <v>67.79807783804358</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7107029909888903</v>
+        <v>0.7605717296401659</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6943926850578293</v>
+        <v>0.6779807783804358</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6852828789938175</v>
+        <v>0.6586792311251065</v>
       </c>
     </row>
     <row r="30">
@@ -4275,16 +4275,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>74.51716710352166</v>
+        <v>73.66119084075122</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5159110183749969</v>
+        <v>0.5501465065870434</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7451716710352165</v>
+        <v>0.7366119084075121</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7288008686391738</v>
+        <v>0.7246463716822354</v>
       </c>
     </row>
     <row r="31">
@@ -4294,16 +4294,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.20069377762783</v>
+        <v>86.39901729253714</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2724705581902526</v>
+        <v>0.3656830662085364</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9020069377762784</v>
+        <v>0.8639901729253714</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9019814557467246</v>
+        <v>0.8618626301083759</v>
       </c>
     </row>
     <row r="32">
@@ -4313,16 +4313,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59.73641352145491</v>
+        <v>59.86575431736721</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9489186942141451</v>
+        <v>0.9534753333461575</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5973641352145491</v>
+        <v>0.5986575431736723</v>
       </c>
       <c r="E32" t="n">
-        <v>0.579445821143229</v>
+        <v>0.5778881499204055</v>
       </c>
     </row>
     <row r="33">
@@ -4332,16 +4332,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10.66538876273914</v>
+        <v>9.469193793583846</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2348869547257702</v>
+        <v>0.220926316418717</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1066538876273914</v>
+        <v>0.09469193793583847</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1173315497386734</v>
+        <v>0.1040438820685454</v>
       </c>
     </row>
   </sheetData>
@@ -4397,16 +4397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.84608863398472</v>
+        <v>46.41398281992058</v>
       </c>
       <c r="C2" t="n">
-        <v>1.236168470978737</v>
+        <v>2.100358962640166</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4784608863398472</v>
+        <v>0.4641398281992059</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4242813219209001</v>
+        <v>0.3652549120713577</v>
       </c>
     </row>
     <row r="3">
@@ -4416,16 +4416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.75252381075961</v>
+        <v>38.69194370193514</v>
       </c>
       <c r="C3" t="n">
-        <v>1.130017506082853</v>
+        <v>2.109984482995545</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4175252381075961</v>
+        <v>0.3869194370193513</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3898197235393311</v>
+        <v>0.3120244791839025</v>
       </c>
     </row>
     <row r="4">
@@ -4435,16 +4435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.0723016635092</v>
+        <v>38.01209353022085</v>
       </c>
       <c r="C4" t="n">
-        <v>1.43458322485288</v>
+        <v>2.405331469327211</v>
       </c>
       <c r="D4" t="n">
-        <v>0.480723016635092</v>
+        <v>0.3801209353022085</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4098753888876877</v>
+        <v>0.2888706125953223</v>
       </c>
     </row>
     <row r="5">
@@ -4454,16 +4454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.45528075502383</v>
+        <v>38.65569771364805</v>
       </c>
       <c r="C5" t="n">
-        <v>1.270617797474066</v>
+        <v>1.52151871919632</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4045528075502383</v>
+        <v>0.3865569771364804</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3342209563245558</v>
+        <v>0.267982812461557</v>
       </c>
     </row>
     <row r="6">
@@ -4473,16 +4473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.69213401500013</v>
+        <v>33.76517097898771</v>
       </c>
       <c r="C6" t="n">
-        <v>1.204464441537857</v>
+        <v>2.156550590942303</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4069213401500013</v>
+        <v>0.3376517097898771</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3573686175304592</v>
+        <v>0.1965460288722741</v>
       </c>
     </row>
     <row r="7">
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.31300443775465</v>
+        <v>39.40492564814575</v>
       </c>
       <c r="C7" t="n">
-        <v>1.297262694438299</v>
+        <v>1.667323982715607</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4331300443775465</v>
+        <v>0.3940492564814574</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3813062046774081</v>
+        <v>0.2951488568143538</v>
       </c>
     </row>
     <row r="8">
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.70732445782403</v>
+        <v>64.37893061358662</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8073019328216711</v>
+        <v>0.9504735049830441</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6670732445782402</v>
+        <v>0.6437893061358662</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6566594965385311</v>
+        <v>0.5965674470613209</v>
       </c>
     </row>
     <row r="9">
@@ -4530,16 +4530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.44425124784816</v>
+        <v>61.27509753544581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7417411218707761</v>
+        <v>0.973059413023293</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6544425124784816</v>
+        <v>0.612750975354458</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6286522945403428</v>
+        <v>0.587533593795454</v>
       </c>
     </row>
     <row r="10">
@@ -4549,16 +4549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65.28516682670265</v>
+        <v>65.10246628431041</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8009539520988861</v>
+        <v>0.9513327730198702</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6528516682670265</v>
+        <v>0.6510246628431042</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6337639662111672</v>
+        <v>0.5994140664714305</v>
       </c>
     </row>
     <row r="11">
@@ -4568,16 +4568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.9356136298757</v>
+        <v>38.07057154473654</v>
       </c>
       <c r="C11" t="n">
-        <v>1.10110720594724</v>
+        <v>1.687974201515317</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4693561362987569</v>
+        <v>0.3807057154473655</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4398542563505697</v>
+        <v>0.277006217431708</v>
       </c>
     </row>
     <row r="12">
@@ -4587,16 +4587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50.86047457157934</v>
+        <v>43.58766079291343</v>
       </c>
       <c r="C12" t="n">
-        <v>1.09065610319376</v>
+        <v>1.43957970837752</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5086047457157934</v>
+        <v>0.4358766079291344</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4647215043338565</v>
+        <v>0.3448925973225771</v>
       </c>
     </row>
     <row r="13">
@@ -4606,16 +4606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.52978831996817</v>
+        <v>51.76887343316118</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9836697141329447</v>
+        <v>1.165962553520997</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5352978831996816</v>
+        <v>0.5176887343316119</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5261192392089702</v>
+        <v>0.4723821732632535</v>
       </c>
     </row>
     <row r="14">
@@ -4625,16 +4625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>51.88704054533343</v>
+        <v>40.32707895397019</v>
       </c>
       <c r="C14" t="n">
-        <v>1.043887076775233</v>
+        <v>1.640096830079953</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5188704054533344</v>
+        <v>0.4032707895397019</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5044068229274323</v>
+        <v>0.315801497530127</v>
       </c>
     </row>
     <row r="15">
@@ -4644,16 +4644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44.31854946842101</v>
+        <v>44.61163158850855</v>
       </c>
       <c r="C15" t="n">
-        <v>1.169575387239456</v>
+        <v>1.349362939596176</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4431854946842101</v>
+        <v>0.4461163158850855</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4189078274689678</v>
+        <v>0.3802166402937368</v>
       </c>
     </row>
     <row r="16">
@@ -4663,16 +4663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.5873407209405</v>
+        <v>32.25988114084032</v>
       </c>
       <c r="C16" t="n">
-        <v>1.286103398601214</v>
+        <v>3.056004317795547</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4658734072094049</v>
+        <v>0.3225988114084032</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4355277993258843</v>
+        <v>0.1882854626792321</v>
       </c>
     </row>
     <row r="17">
@@ -4682,16 +4682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42.30867049022915</v>
+        <v>34.53541985657316</v>
       </c>
       <c r="C17" t="n">
-        <v>1.320684777696927</v>
+        <v>2.263215490678946</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4230867049022916</v>
+        <v>0.3453541985657315</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3813125907595081</v>
+        <v>0.2436814838685792</v>
       </c>
     </row>
     <row r="18">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>49.75882144309207</v>
+        <v>38.18891166878606</v>
       </c>
       <c r="C18" t="n">
-        <v>1.109870587786039</v>
+        <v>3.130113048230609</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4975882144309207</v>
+        <v>0.3818891166878606</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4640034775331847</v>
+        <v>0.2520405328556623</v>
       </c>
     </row>
     <row r="19">
@@ -4720,16 +4720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.1223713007898</v>
+        <v>45.64996236991669</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9954012632369995</v>
+        <v>2.593970902419338</v>
       </c>
       <c r="D19" t="n">
-        <v>0.561223713007898</v>
+        <v>0.456499623699167</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5251684609658727</v>
+        <v>0.353012143367153</v>
       </c>
     </row>
     <row r="20">
@@ -4739,16 +4739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>45.96025917179215</v>
+        <v>51.86930682791374</v>
       </c>
       <c r="C20" t="n">
-        <v>1.265762061874072</v>
+        <v>1.337496814131737</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4596025917179214</v>
+        <v>0.5186930682791374</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4528680160375728</v>
+        <v>0.4662865130537097</v>
       </c>
     </row>
     <row r="21">
@@ -4758,16 +4758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>43.57658803276845</v>
+        <v>45.80376992880561</v>
       </c>
       <c r="C21" t="n">
-        <v>1.41365288036565</v>
+        <v>1.673844976257533</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4357658803276845</v>
+        <v>0.4580376992880561</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3925082304248922</v>
+        <v>0.3656577844195837</v>
       </c>
     </row>
     <row r="22">
@@ -4777,16 +4777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.70054239223523</v>
+        <v>59.66340539278021</v>
       </c>
       <c r="C22" t="n">
-        <v>1.015142711997032</v>
+        <v>1.027722942829132</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6270054239223523</v>
+        <v>0.5966340539278022</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6127468485049616</v>
+        <v>0.5737468979203802</v>
       </c>
     </row>
     <row r="23">
@@ -4796,16 +4796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.16934402546735</v>
+        <v>41.69923615256187</v>
       </c>
       <c r="C23" t="n">
-        <v>1.222011776765188</v>
+        <v>3.973988573249275</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4616934402546734</v>
+        <v>0.4169923615256187</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4036936175843341</v>
+        <v>0.2849963599428493</v>
       </c>
     </row>
     <row r="24">
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>33.38480436681978</v>
+        <v>33.14500990492998</v>
       </c>
       <c r="C24" t="n">
-        <v>1.490693068504334</v>
+        <v>2.36606995947659</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3338480436681978</v>
+        <v>0.3314500990492997</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2884252907588981</v>
+        <v>0.221927197851467</v>
       </c>
     </row>
     <row r="25">
@@ -4834,16 +4834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.06628950077423</v>
+        <v>33.31352347338645</v>
       </c>
       <c r="C25" t="n">
-        <v>1.312573011716207</v>
+        <v>1.786534869670868</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4306628950077423</v>
+        <v>0.3331352347338645</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3983253417293227</v>
+        <v>0.2752524891757561</v>
       </c>
     </row>
     <row r="26">
@@ -4853,16 +4853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>52.78030086765457</v>
+        <v>41.90001643612834</v>
       </c>
       <c r="C26" t="n">
-        <v>1.153902806838353</v>
+        <v>1.972150239845117</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5278030086765456</v>
+        <v>0.4190001643612834</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4902027779125592</v>
+        <v>0.3482320856172831</v>
       </c>
     </row>
     <row r="27">
@@ -4872,16 +4872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>42.67043832559105</v>
+        <v>39.76409830534866</v>
       </c>
       <c r="C27" t="n">
-        <v>1.391514940063159</v>
+        <v>1.857523496293773</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4267043832559105</v>
+        <v>0.3976409830534866</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4015235724214198</v>
+        <v>0.3377627976933387</v>
       </c>
     </row>
     <row r="28">
@@ -4891,16 +4891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.7815638543586</v>
+        <v>42.59362105208523</v>
       </c>
       <c r="C28" t="n">
-        <v>1.336710783218344</v>
+        <v>2.220994537572066</v>
       </c>
       <c r="D28" t="n">
-        <v>0.487815638543586</v>
+        <v>0.4259362105208522</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4181104732284791</v>
+        <v>0.3437907669357346</v>
       </c>
     </row>
     <row r="29">
@@ -4910,16 +4910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>64.22979437538388</v>
+        <v>50.40130104931703</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9169917156298956</v>
+        <v>2.356446304370183</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6422979437538388</v>
+        <v>0.5040130104931704</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6124563412224526</v>
+        <v>0.4227939561559384</v>
       </c>
     </row>
     <row r="30">
@@ -4929,16 +4929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>71.24248479658129</v>
+        <v>61.88479139092899</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5613695021718741</v>
+        <v>0.8373917389661074</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7124248479658128</v>
+        <v>0.6188479139092899</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7108212939281023</v>
+        <v>0.5853283790604549</v>
       </c>
     </row>
     <row r="31">
@@ -4948,16 +4948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.48070485038798</v>
+        <v>74.21725101428214</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5223755167176326</v>
+        <v>0.6880893220504125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7948070485038798</v>
+        <v>0.7421725101428213</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7910603659179888</v>
+        <v>0.7293606869853986</v>
       </c>
     </row>
     <row r="32">
@@ -4967,16 +4967,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>51.19732869661503</v>
+        <v>45.6985210368025</v>
       </c>
       <c r="C32" t="n">
-        <v>1.120892247754252</v>
+        <v>1.842015588859018</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5119732869661503</v>
+        <v>0.4569852103680251</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4782904039571871</v>
+        <v>0.3763932490916966</v>
       </c>
     </row>
     <row r="33">
@@ -4986,16 +4986,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10.51565574205978</v>
+        <v>10.82640379566683</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242460991717671</v>
+        <v>0.7386581355681067</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1051565574205978</v>
+        <v>0.1082640379566683</v>
       </c>
       <c r="E33" t="n">
-        <v>0.117507652737303</v>
+        <v>0.1368121336323448</v>
       </c>
     </row>
   </sheetData>

--- a/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.05.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.05.xlsx
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81.21670602686875</v>
+        <v>86.72566371681417</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5292277754129221</v>
+        <v>0.3852929531528692</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8121670602686875</v>
+        <v>0.8672566371681416</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8034361275025809</v>
+        <v>0.8476238379045065</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.26164586198843</v>
+        <v>91.88790560471976</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333645293430891</v>
+        <v>0.2524983912274669</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8626164586198843</v>
+        <v>0.9188790560471976</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8591204807192158</v>
+        <v>0.9166389179174519</v>
       </c>
     </row>
     <row r="4">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.06609918770923</v>
+        <v>87.34513274336283</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5298981895049413</v>
+        <v>0.3834044808056812</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8106609918770923</v>
+        <v>0.8734513274336283</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7951880920785964</v>
+        <v>0.8630847313972497</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.32091108054568</v>
+        <v>91.29845413887664</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5555900086493542</v>
+        <v>0.211632952800331</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7732091108054568</v>
+        <v>0.9129845413887663</v>
       </c>
       <c r="E5" t="n">
-        <v>0.762727136334828</v>
+        <v>0.9139431170692294</v>
       </c>
     </row>
     <row r="6">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.59544632739038</v>
+        <v>93.68731563421829</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4298900517945488</v>
+        <v>0.2014290901909893</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8359544632739038</v>
+        <v>0.9368731563421828</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8367960402327885</v>
+        <v>0.9357011735818113</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.81562989299215</v>
+        <v>89.44246922551233</v>
       </c>
       <c r="C7" t="n">
-        <v>0.605942080480357</v>
+        <v>0.2649217396120851</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7681562989299215</v>
+        <v>0.8944246922551233</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7588472625414497</v>
+        <v>0.8936446922759528</v>
       </c>
     </row>
     <row r="8">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.34331611865154</v>
+        <v>90.8259587020649</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5125729839140453</v>
+        <v>0.217226131106554</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7734331611865155</v>
+        <v>0.9082595870206489</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7644538384643766</v>
+        <v>0.9036779842015248</v>
       </c>
     </row>
     <row r="9">
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83.93818285625308</v>
+        <v>95.6637168141593</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3679077623489623</v>
+        <v>0.104125877568913</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8393818285625307</v>
+        <v>0.9566371681415928</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8250679653985873</v>
+        <v>0.9560275999560485</v>
       </c>
     </row>
     <row r="10">
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87.82264552461527</v>
+        <v>97.1976401179941</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3223176496141605</v>
+        <v>0.06668894986576959</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8782264552461527</v>
+        <v>0.9719764011799411</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8764110391822391</v>
+        <v>0.9719511840433184</v>
       </c>
     </row>
     <row r="11">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.39714876426267</v>
+        <v>94.48394882308671</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2472616424851973</v>
+        <v>0.1146990132001577</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9039714876426267</v>
+        <v>0.9448394882308671</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9039994454066267</v>
+        <v>0.9428055463279975</v>
       </c>
     </row>
     <row r="12">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.36455332658588</v>
+        <v>90.97345132743362</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4261059633766611</v>
+        <v>0.2357056656609833</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8236455332658587</v>
+        <v>0.9097345132743364</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8228374854331367</v>
+        <v>0.909038428295713</v>
       </c>
     </row>
     <row r="13">
@@ -682,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.18647220131662</v>
+        <v>92.47822212994922</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3770820547360927</v>
+        <v>0.2090588480302055</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8618647220131661</v>
+        <v>0.9247822212994923</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8603210106039286</v>
+        <v>0.9204804785031152</v>
       </c>
     </row>
     <row r="14">
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>76.93647868926202</v>
+        <v>93.65781710914455</v>
       </c>
       <c r="C14" t="n">
-        <v>0.547127282541866</v>
+        <v>0.1893187185562662</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7693647868926201</v>
+        <v>0.9365781710914455</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7544869652915691</v>
+        <v>0.9332858949637044</v>
       </c>
     </row>
     <row r="15">
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80.19031306499191</v>
+        <v>87.75915016565887</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4976620395978292</v>
+        <v>0.3322834320133552</v>
       </c>
       <c r="D15" t="n">
-        <v>0.801903130649919</v>
+        <v>0.8775915016565887</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8034353558262423</v>
+        <v>0.8737124922338964</v>
       </c>
     </row>
     <row r="16">
@@ -739,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>81.40528897308801</v>
+        <v>91.26878260192562</v>
       </c>
       <c r="C16" t="n">
-        <v>0.49018628768002</v>
+        <v>0.2055636473601529</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8140528897308801</v>
+        <v>0.9126878260192562</v>
       </c>
       <c r="E16" t="n">
-        <v>0.811246847816067</v>
+        <v>0.909893655540824</v>
       </c>
     </row>
     <row r="17">
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>87.29340219206048</v>
+        <v>95.84070796460176</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2978500365279615</v>
+        <v>0.1074593405384803</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8729340219206048</v>
+        <v>0.9584070796460177</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8665570208610778</v>
+        <v>0.9576296153617736</v>
       </c>
     </row>
     <row r="18">
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>86.80057785967007</v>
+        <v>91.77025752817931</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3918049688992407</v>
+        <v>0.3186113293299656</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8680057785967007</v>
+        <v>0.9177025752817931</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8667519048570005</v>
+        <v>0.9110379814185917</v>
       </c>
     </row>
     <row r="19">
@@ -796,16 +796,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.94550125866141</v>
+        <v>95.81172847515981</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2629595813787697</v>
+        <v>0.1306286574718191</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8994550125866141</v>
+        <v>0.9581172847515982</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8933691272786157</v>
+        <v>0.9574317270299371</v>
       </c>
     </row>
     <row r="20">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>79.94212752705474</v>
+        <v>93.06836564330141</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5672608668988687</v>
+        <v>0.2050581471407592</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7994212752705473</v>
+        <v>0.9306836564330141</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7958152693629948</v>
+        <v>0.9233839184183438</v>
       </c>
     </row>
     <row r="21">
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.41968356127649</v>
+        <v>85.63646744348999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6661206544687351</v>
+        <v>0.5246366296380681</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7541968356127648</v>
+        <v>0.8563646744349001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7379176218454754</v>
+        <v>0.8378911377966535</v>
       </c>
     </row>
     <row r="22">
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>80.76030069464268</v>
+        <v>92.92070000605541</v>
       </c>
       <c r="C22" t="n">
-        <v>0.552014468734463</v>
+        <v>0.1610692558034013</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8076030069464268</v>
+        <v>0.9292070000605541</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7938373618600922</v>
+        <v>0.9254886276463349</v>
       </c>
     </row>
     <row r="23">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>80.65952127613562</v>
+        <v>90.61946902654867</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4797744754934684</v>
+        <v>0.2314014562599672</v>
       </c>
       <c r="D23" t="n">
-        <v>0.806595212761356</v>
+        <v>0.9061946902654867</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7998822277225692</v>
+        <v>0.9033796517843857</v>
       </c>
     </row>
     <row r="24">
@@ -891,16 +891,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>85.96579555186463</v>
+        <v>91.09231048711494</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3369490421377123</v>
+        <v>0.234300070280248</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8596579555186464</v>
+        <v>0.9109231048711495</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8568182855025338</v>
+        <v>0.9100531459516693</v>
       </c>
     </row>
     <row r="25">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.74261888078617</v>
+        <v>91.71108746615455</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6124287705247601</v>
+        <v>0.25173862396526</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7674261888078616</v>
+        <v>0.9171108746615456</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7474506974557806</v>
+        <v>0.9090939367480939</v>
       </c>
     </row>
     <row r="26">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.88995579546535</v>
+        <v>87.37480428031384</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4685109943461915</v>
+        <v>0.3287093705085984</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7888995579546536</v>
+        <v>0.8737480428031384</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7690526284898618</v>
+        <v>0.8658678695518107</v>
       </c>
     </row>
     <row r="27">
@@ -948,16 +948,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>73.98013823648994</v>
+        <v>77.87956643223558</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8096119020396145</v>
+        <v>0.8519517186979708</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7398013823648993</v>
+        <v>0.7787956643223557</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7356163275314669</v>
+        <v>0.7601991701346045</v>
       </c>
     </row>
     <row r="28">
@@ -967,16 +967,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73.22866114758779</v>
+        <v>83.68731563421829</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7926017188156644</v>
+        <v>0.5881106041745322</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7322866114758778</v>
+        <v>0.8368731563421828</v>
       </c>
       <c r="E28" t="n">
-        <v>0.718798262993307</v>
+        <v>0.8189746568616549</v>
       </c>
     </row>
     <row r="29">
@@ -986,16 +986,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>95.33992508585713</v>
+        <v>97.16814159292036</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1276288443540883</v>
+        <v>0.08568979835808932</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9533992508585714</v>
+        <v>0.9716814159292035</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9535437703808191</v>
+        <v>0.9716109851008838</v>
       </c>
     </row>
     <row r="30">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>90.76782671130374</v>
+        <v>99.82300884955752</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1909119477189961</v>
+        <v>0.007729755389902948</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9076782671130375</v>
+        <v>0.9982300884955752</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8955805787321607</v>
+        <v>0.9982315157824578</v>
       </c>
     </row>
     <row r="31">
@@ -1024,16 +1024,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.84660766961652</v>
+        <v>98.28908554572271</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05980253633588291</v>
+        <v>0.03967009278921978</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9784660766961653</v>
+        <v>0.9828908554572271</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9782814822717075</v>
+        <v>0.982794678442988</v>
       </c>
     </row>
     <row r="32">
@@ -1043,16 +1043,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.88144937816648</v>
+        <v>91.57962150768316</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4462789036718155</v>
+        <v>0.2480204913832688</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8288144937816647</v>
+        <v>0.9157962150768317</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8215882553325901</v>
+        <v>0.9108192784080843</v>
       </c>
     </row>
     <row r="33">
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.02700412611371</v>
+        <v>4.533527409669085</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1724111450069122</v>
+        <v>0.1699636455472801</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06027004126113712</v>
+        <v>0.04533527409669084</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06392626058010029</v>
+        <v>0.05027853568108825</v>
       </c>
     </row>
   </sheetData>
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.41938079049126</v>
+        <v>82.9203539823009</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5476167812332278</v>
+        <v>0.4417715324059827</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8041938079049127</v>
+        <v>0.8292035398230089</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7859309649358398</v>
+        <v>0.8137539193536915</v>
       </c>
     </row>
     <row r="3">
@@ -1146,16 +1146,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.44501250010813</v>
+        <v>90.73763613872093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3833473998626384</v>
+        <v>0.2516464562431793</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8344501250010813</v>
+        <v>0.9073763613872092</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8315135528305577</v>
+        <v>0.9017661179159205</v>
       </c>
     </row>
     <row r="4">
@@ -1165,16 +1165,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.62900198098599</v>
+        <v>86.54867256637168</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4857392451260239</v>
+        <v>0.4851544451948333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8262900198098599</v>
+        <v>0.8654867256637168</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8095679667124408</v>
+        <v>0.8465567753328671</v>
       </c>
     </row>
     <row r="5">
@@ -1184,16 +1184,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.82845007309751</v>
+        <v>85.64131177605343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.491173792257905</v>
+        <v>0.350482430618528</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7882845007309751</v>
+        <v>0.8564131177605342</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7825238453907909</v>
+        <v>0.8475726818990414</v>
       </c>
     </row>
     <row r="6">
@@ -1203,16 +1203,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.53474511025182</v>
+        <v>86.62410574485939</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4009550921618938</v>
+        <v>0.3423570467954656</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8653474511025182</v>
+        <v>0.8662410574485939</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8635124036954744</v>
+        <v>0.8667487324234548</v>
       </c>
     </row>
     <row r="7">
@@ -1222,16 +1222,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.37539252069655</v>
+        <v>84.5207138470056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5789166318873564</v>
+        <v>0.3998048113659024</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7537539252069655</v>
+        <v>0.8452071384700559</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7568549250435721</v>
+        <v>0.8419328058940379</v>
       </c>
     </row>
     <row r="8">
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.28290037111047</v>
+        <v>88.70760127682766</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7086065855233755</v>
+        <v>0.2775727518144473</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7328290037111047</v>
+        <v>0.8870760127682764</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7159301323028882</v>
+        <v>0.8744820213367867</v>
       </c>
     </row>
     <row r="9">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.73640775439233</v>
+        <v>93.24639486500749</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2709177138817419</v>
+        <v>0.1639375145629553</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8873640775439234</v>
+        <v>0.9324639486500749</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8863107207390311</v>
+        <v>0.9317495728280228</v>
       </c>
     </row>
     <row r="10">
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.95175563802455</v>
+        <v>93.18601371984187</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2030345760809344</v>
+        <v>0.1650702313491517</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9295175563802456</v>
+        <v>0.9318601371984186</v>
       </c>
       <c r="E10" t="n">
-        <v>0.92933502648842</v>
+        <v>0.9304206551776447</v>
       </c>
     </row>
     <row r="11">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.80979939272831</v>
+        <v>93.21551224491562</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1844551210803426</v>
+        <v>0.138383485039473</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9280979939272831</v>
+        <v>0.9321551224491561</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9279796333345305</v>
+        <v>0.9294516414226027</v>
       </c>
     </row>
     <row r="12">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81.56913122085831</v>
+        <v>87.96460176991151</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4479992316104472</v>
+        <v>0.3075318311632145</v>
       </c>
       <c r="D12" t="n">
-        <v>0.815691312208583</v>
+        <v>0.879646017699115</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8153834767510457</v>
+        <v>0.8812441955146404</v>
       </c>
     </row>
     <row r="13">
@@ -1336,16 +1336,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.44640524572011</v>
+        <v>90.32448377581122</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4331445685122162</v>
+        <v>0.299586236764056</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8444640524572012</v>
+        <v>0.903244837758112</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8429302920949189</v>
+        <v>0.8962649426215712</v>
       </c>
     </row>
     <row r="14">
@@ -1355,16 +1355,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78.00326992448031</v>
+        <v>86.1358662272165</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5841728517746863</v>
+        <v>0.3232634422951378</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7800326992448031</v>
+        <v>0.861358662272165</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7634371470859157</v>
+        <v>0.856623754979761</v>
       </c>
     </row>
     <row r="15">
@@ -1374,16 +1374,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.5064663189128</v>
+        <v>86.93388351110303</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5762754020591576</v>
+        <v>0.3192916365961234</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7750646631891279</v>
+        <v>0.8693388351110304</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7636461475744181</v>
+        <v>0.8682203754817227</v>
       </c>
     </row>
     <row r="16">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>70.56142354172614</v>
+        <v>75.20471630377425</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7423606931231916</v>
+        <v>0.6382149620757749</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7056142354172614</v>
+        <v>0.7520471630377425</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6941491672642889</v>
+        <v>0.7453914981101248</v>
       </c>
     </row>
     <row r="17">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>90.44991738682862</v>
+        <v>93.53982300884955</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2393245566180364</v>
+        <v>0.1681298378690068</v>
       </c>
       <c r="D17" t="n">
-        <v>0.904499173868286</v>
+        <v>0.9353982300884957</v>
       </c>
       <c r="E17" t="n">
-        <v>0.90450541322384</v>
+        <v>0.934952519125489</v>
       </c>
     </row>
     <row r="18">
@@ -1431,16 +1431,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>82.87588992984368</v>
+        <v>87.94409986245554</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4749442599325694</v>
+        <v>0.2764684016461009</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8287588992984368</v>
+        <v>0.8794409986245556</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8167099145178478</v>
+        <v>0.878874200214022</v>
       </c>
     </row>
     <row r="19">
@@ -1450,16 +1450,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.70708224119586</v>
+        <v>94.24778761061947</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2917042286018841</v>
+        <v>0.1649165691600501</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8870708224119586</v>
+        <v>0.9424778761061947</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8828345155150596</v>
+        <v>0.9418284281383219</v>
       </c>
     </row>
     <row r="20">
@@ -1469,16 +1469,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.70114793380566</v>
+        <v>93.65920120416267</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4670598339910309</v>
+        <v>0.1592804007348604</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8270114793380566</v>
+        <v>0.9365920120416267</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8183051238072967</v>
+        <v>0.9351528625369095</v>
       </c>
     </row>
     <row r="21">
@@ -1488,16 +1488,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>71.71065493646138</v>
+        <v>77.23180996375402</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7351064960317065</v>
+        <v>0.6306173794747642</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7171065493646138</v>
+        <v>0.7723180996375401</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7041154248031012</v>
+        <v>0.7522601908125257</v>
       </c>
     </row>
     <row r="22">
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.08825335859306</v>
+        <v>92.30226905077033</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4827863275073468</v>
+        <v>0.184316282090731</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8208825335859306</v>
+        <v>0.9230226905077034</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8133136050419786</v>
+        <v>0.9190578484743961</v>
       </c>
     </row>
     <row r="23">
@@ -1526,16 +1526,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.1019991522418</v>
+        <v>88.93805309734515</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4478201359956681</v>
+        <v>0.2831872422898111</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8110199915224181</v>
+        <v>0.8893805309734514</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8088945730641391</v>
+        <v>0.8869523325050575</v>
       </c>
     </row>
     <row r="24">
@@ -1545,16 +1545,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>85.25610083132207</v>
+        <v>90.38486492097682</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3819347186790158</v>
+        <v>0.2458314713798851</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8525610083132207</v>
+        <v>0.9038486492097683</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8470662184238262</v>
+        <v>0.9029700725384193</v>
       </c>
     </row>
     <row r="25">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.15731104940355</v>
+        <v>85.96216230244207</v>
       </c>
       <c r="C25" t="n">
-        <v>0.695082497348388</v>
+        <v>0.4155275740427896</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7515731104940354</v>
+        <v>0.8596216230244206</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7334564323588213</v>
+        <v>0.8394043964058888</v>
       </c>
     </row>
     <row r="26">
@@ -1583,16 +1583,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.92586441059179</v>
+        <v>84.10029498525074</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5131560210759442</v>
+        <v>0.3706343367952892</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7992586441059178</v>
+        <v>0.8410029498525073</v>
       </c>
       <c r="E26" t="n">
-        <v>0.779569324111185</v>
+        <v>0.8360582321668893</v>
       </c>
     </row>
     <row r="27">
@@ -1602,16 +1602,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>69.51020337546173</v>
+        <v>76.61770430540057</v>
       </c>
       <c r="C27" t="n">
-        <v>1.051808059576433</v>
+        <v>0.8491801366913327</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6951020337546173</v>
+        <v>0.7661770430540057</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6706209994365731</v>
+        <v>0.7623348557308165</v>
       </c>
     </row>
     <row r="28">
@@ -1621,16 +1621,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.80976479035286</v>
+        <v>76.46554035934567</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9220310700436434</v>
+        <v>0.6579820587222154</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6880976479035286</v>
+        <v>0.7646554035934567</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6724978344889661</v>
+        <v>0.7532232186867657</v>
       </c>
     </row>
     <row r="29">
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>94.57227138643069</v>
+        <v>97.99410029498526</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1278201038609647</v>
+        <v>0.06954062407221499</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9457227138643068</v>
+        <v>0.9799410029498524</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9458414979469376</v>
+        <v>0.9798588573220485</v>
       </c>
     </row>
     <row r="30">
@@ -1659,16 +1659,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>96.96217095303594</v>
+        <v>99.29203539823008</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08109180966154479</v>
+        <v>0.02035442899747674</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9696217095303593</v>
+        <v>0.9929203539823008</v>
       </c>
       <c r="E30" t="n">
-        <v>0.969794276408334</v>
+        <v>0.9929416502371646</v>
       </c>
     </row>
     <row r="31">
@@ -1678,16 +1678,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.96736995994775</v>
+        <v>95.95870206489676</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0622692711757433</v>
+        <v>0.09633972245774203</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9796736995994776</v>
+        <v>0.9595870206489675</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9796280790805125</v>
+        <v>0.9574468967993883</v>
       </c>
     </row>
     <row r="32">
@@ -1697,16 +1697,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.49651813597005</v>
+        <v>88.21834387264019</v>
       </c>
       <c r="C32" t="n">
-        <v>0.467088502542502</v>
+        <v>0.3165458426902832</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8249651813597004</v>
+        <v>0.882183438726402</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8172052878157516</v>
+        <v>0.8768498750661998</v>
       </c>
     </row>
     <row r="33">
@@ -1716,16 +1716,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.866278888618736</v>
+        <v>6.123374914017582</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2290556703624425</v>
+        <v>0.1865733598753711</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07866278888618737</v>
+        <v>0.06123374914017581</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08415041064805685</v>
+        <v>0.06471804138274388</v>
       </c>
     </row>
   </sheetData>
@@ -1781,16 +1781,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76.12522599676467</v>
+        <v>85.07374631268436</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6020207455304141</v>
+        <v>0.3559247316559777</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7612522599676468</v>
+        <v>0.8507374631268437</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7457605075690326</v>
+        <v>0.8458140374596832</v>
       </c>
     </row>
     <row r="3">
@@ -1800,16 +1800,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.83490341611952</v>
+        <v>90.7669616519174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5892906350704531</v>
+        <v>0.2610493113558429</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7483490341611951</v>
+        <v>0.9076696165191741</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7366085735816974</v>
+        <v>0.9029905472032705</v>
       </c>
     </row>
     <row r="4">
@@ -1819,16 +1819,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.30016695646155</v>
+        <v>84.54277286135694</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5920805613355091</v>
+        <v>0.4393208336550742</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7930016695646156</v>
+        <v>0.8454277286135692</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7714050657815071</v>
+        <v>0.8320411776303727</v>
       </c>
     </row>
     <row r="5">
@@ -1838,16 +1838,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.04919592730042</v>
+        <v>85.9442555731451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5239005801578364</v>
+        <v>0.3283106304860363</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7704919592730042</v>
+        <v>0.859442555731451</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7534500589070505</v>
+        <v>0.8538984930654034</v>
       </c>
     </row>
     <row r="6">
@@ -1857,16 +1857,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.37476102734453</v>
+        <v>91.26912862568015</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4695626397617161</v>
+        <v>0.2576736922453468</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8237476102734453</v>
+        <v>0.9126912862568016</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8208568509396386</v>
+        <v>0.9124478991034918</v>
       </c>
     </row>
     <row r="7">
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.83314734556527</v>
+        <v>85.40099827853183</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7026767164468766</v>
+        <v>0.3790664114989341</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7183314734556527</v>
+        <v>0.8540099827853183</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7146513038786692</v>
+        <v>0.8505784195953663</v>
       </c>
     </row>
     <row r="8">
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.69796451526398</v>
+        <v>86.78915907577054</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6035029783456898</v>
+        <v>0.3169786482272078</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7469796451526397</v>
+        <v>0.8678915907577055</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7392193138245401</v>
+        <v>0.8691557966863614</v>
       </c>
     </row>
     <row r="9">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83.6680248099032</v>
+        <v>92.03574425384302</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3921020579679558</v>
+        <v>0.2068219756234612</v>
       </c>
       <c r="D9" t="n">
-        <v>0.836680248099032</v>
+        <v>0.9203574425384303</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8355576743384571</v>
+        <v>0.9186291975384806</v>
       </c>
     </row>
     <row r="10">
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.90745594685075</v>
+        <v>93.74631268436579</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4353695484111085</v>
+        <v>0.175498564816462</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8190745594685076</v>
+        <v>0.9374631268436578</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8051077244262063</v>
+        <v>0.937933520653832</v>
       </c>
     </row>
     <row r="11">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.50960648448516</v>
+        <v>94.86725663716814</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2447866967491184</v>
+        <v>0.113504751506116</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9050960648448516</v>
+        <v>0.9486725663716815</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9050226239994542</v>
+        <v>0.9489054872688459</v>
       </c>
     </row>
     <row r="12">
@@ -1971,16 +1971,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81.47959757437349</v>
+        <v>86.34218289085547</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5011221766782303</v>
+        <v>0.3888097157604837</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8147959757437349</v>
+        <v>0.8634218289085546</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8141944965603571</v>
+        <v>0.8642506247875946</v>
       </c>
     </row>
     <row r="13">
@@ -1990,16 +1990,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85.44156956375055</v>
+        <v>90.76713466379468</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3868889526464045</v>
+        <v>0.2766088324831799</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8544156956375055</v>
+        <v>0.9076713466379467</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8507529160974301</v>
+        <v>0.9025812602045669</v>
       </c>
     </row>
     <row r="14">
@@ -2009,16 +2009,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73.19362624244154</v>
+        <v>83.74735075562937</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6496405633166432</v>
+        <v>0.4001749359420501</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7319362624244155</v>
+        <v>0.8374735075562938</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7143219162658794</v>
+        <v>0.8253861206537145</v>
       </c>
     </row>
     <row r="15">
@@ -2028,16 +2028,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>74.01119386845906</v>
+        <v>83.52243531518438</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6016206145907442</v>
+        <v>0.410988826615115</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7401119386845907</v>
+        <v>0.835224353151844</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7380975090256394</v>
+        <v>0.8335427622142222</v>
       </c>
     </row>
     <row r="16">
@@ -2047,16 +2047,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.20204327027051</v>
+        <v>73.44120623880829</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9059054772059122</v>
+        <v>0.7136712166985186</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6620204327027051</v>
+        <v>0.734412062388083</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6343753601476182</v>
+        <v>0.7287419251988249</v>
       </c>
     </row>
     <row r="17">
@@ -2066,16 +2066,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>84.87781036168133</v>
+        <v>92.00589970501474</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4018188997831506</v>
+        <v>0.2015622208923256</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8487781036168134</v>
+        <v>0.9200589970501476</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8456279101356772</v>
+        <v>0.9192878175056538</v>
       </c>
     </row>
     <row r="18">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80.99421275270547</v>
+        <v>81.37163816295988</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4547643646840395</v>
+        <v>0.4609461780559893</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8099421275270547</v>
+        <v>0.8137163816295988</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8106954080128729</v>
+        <v>0.8068853301602592</v>
       </c>
     </row>
     <row r="19">
@@ -2104,16 +2104,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.70534347182934</v>
+        <v>92.44837758112094</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3425297848763876</v>
+        <v>0.1769759238658783</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8770534347182934</v>
+        <v>0.9244837758112094</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8778240413132796</v>
+        <v>0.9245038900677842</v>
       </c>
     </row>
     <row r="20">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>79.84567340547929</v>
+        <v>92.5080666787775</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5538690509895484</v>
+        <v>0.1936339396653542</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7984567340547929</v>
+        <v>0.925080666787775</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7966279593944827</v>
+        <v>0.9234127349459547</v>
       </c>
     </row>
     <row r="21">
@@ -2142,16 +2142,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>68.5584650386249</v>
+        <v>77.67809410116004</v>
       </c>
       <c r="C21" t="n">
-        <v>0.818756217462942</v>
+        <v>0.6481850552295024</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6855846503862491</v>
+        <v>0.7767809410116004</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6716787099644308</v>
+        <v>0.7599637273684079</v>
       </c>
     </row>
     <row r="22">
@@ -2161,16 +2161,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.0767999723181</v>
+        <v>91.62501405721503</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6515383928393323</v>
+        <v>0.2106173582763101</v>
       </c>
       <c r="D22" t="n">
-        <v>0.780767999723181</v>
+        <v>0.9162501405721504</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7613143248125154</v>
+        <v>0.9133612435788663</v>
       </c>
     </row>
     <row r="23">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78.8903018192199</v>
+        <v>88.49609425687073</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5501205520704389</v>
+        <v>0.3023650706842697</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7889030181921989</v>
+        <v>0.8849609425687074</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7687276444622634</v>
+        <v>0.8813336625596572</v>
       </c>
     </row>
     <row r="24">
@@ -2199,16 +2199,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>79.45959740136161</v>
+        <v>88.55578335452728</v>
       </c>
       <c r="C24" t="n">
-        <v>0.467789994017221</v>
+        <v>0.2908354114370013</v>
       </c>
       <c r="D24" t="n">
-        <v>0.794595974013616</v>
+        <v>0.8855578335452728</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7950609391942332</v>
+        <v>0.8856416890834515</v>
       </c>
     </row>
     <row r="25">
@@ -2218,16 +2218,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.18369536068651</v>
+        <v>85.87055251343006</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6558551750766733</v>
+        <v>0.4625673096471776</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7518369536068651</v>
+        <v>0.8587055251343004</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7247772151840961</v>
+        <v>0.8534248425227714</v>
       </c>
     </row>
     <row r="26">
@@ -2237,16 +2237,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>75.50402685144336</v>
+        <v>86.04927378264517</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6303709212457761</v>
+        <v>0.3167600811245696</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7550402685144335</v>
+        <v>0.8604927378264519</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7285120110926309</v>
+        <v>0.8570466559639509</v>
       </c>
     </row>
     <row r="27">
@@ -2256,16 +2256,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>71.25122189638319</v>
+        <v>77.58492720525264</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9348014388233423</v>
+        <v>0.8793584862568726</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7125122189638319</v>
+        <v>0.7758492720525264</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7046980869039026</v>
+        <v>0.7678088847259675</v>
       </c>
     </row>
     <row r="28">
@@ -2275,16 +2275,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65.56475402036349</v>
+        <v>76.96874540437202</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9352906592500707</v>
+        <v>0.5984131596264585</v>
       </c>
       <c r="D28" t="n">
-        <v>0.655647540203635</v>
+        <v>0.7696874540437201</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6358332220364831</v>
+        <v>0.7616999624617558</v>
       </c>
     </row>
     <row r="29">
@@ -2294,16 +2294,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>88.79229059074905</v>
+        <v>96.28318584070796</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2505123110837303</v>
+        <v>0.1089885211292009</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8879229059074906</v>
+        <v>0.9628318584070797</v>
       </c>
       <c r="E29" t="n">
-        <v>0.883186402502407</v>
+        <v>0.9631024924208933</v>
       </c>
     </row>
     <row r="30">
@@ -2313,16 +2313,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>85.00012975890795</v>
+        <v>96.25368731563421</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3434560438268818</v>
+        <v>0.1001568412031096</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8500012975890796</v>
+        <v>0.9625368731563422</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8325001478661639</v>
+        <v>0.9626488555583375</v>
       </c>
     </row>
     <row r="31">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.84850214967257</v>
+        <v>97.46312684365782</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1034770204949988</v>
+        <v>0.06326309208852762</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9684850214967258</v>
+        <v>0.9746312684365781</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9683849711333012</v>
+        <v>0.9742260033043013</v>
       </c>
     </row>
     <row r="32">
@@ -2351,16 +2351,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.97271025989266</v>
+        <v>87.64730375406938</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5431807256913049</v>
+        <v>0.3346343909250784</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7897271025989269</v>
+        <v>0.8764730375406937</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7794943629783971</v>
+        <v>0.8727081687164016</v>
       </c>
     </row>
     <row r="33">
@@ -2370,16 +2370,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.038969612253653</v>
+        <v>6.026762504697138</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1955112385069055</v>
+        <v>0.1855903436746058</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07038969612253654</v>
+        <v>0.0602676250469714</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07589628746332122</v>
+        <v>0.06330719028056213</v>
       </c>
     </row>
   </sheetData>
@@ -2435,16 +2435,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69.97041496898763</v>
+        <v>86.02064031695775</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8296038909310786</v>
+        <v>0.3785820659482851</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6997041496898763</v>
+        <v>0.8602064031695775</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6555493478205394</v>
+        <v>0.8467650181052656</v>
       </c>
     </row>
     <row r="3">
@@ -2454,16 +2454,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.73786970475524</v>
+        <v>78.13597003434286</v>
       </c>
       <c r="C3" t="n">
-        <v>0.785380070656538</v>
+        <v>0.736224581320615</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6773786970475524</v>
+        <v>0.7813597003434285</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6597071252551402</v>
+        <v>0.7594212718928033</v>
       </c>
     </row>
     <row r="4">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.9135200131489</v>
+        <v>83.39509857351706</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7711486529558897</v>
+        <v>0.5346107572249215</v>
       </c>
       <c r="D4" t="n">
-        <v>0.729135200131489</v>
+        <v>0.8339509857351708</v>
       </c>
       <c r="E4" t="n">
-        <v>0.713366079830003</v>
+        <v>0.8172503085644275</v>
       </c>
     </row>
     <row r="5">
@@ -2492,16 +2492,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65.57798942897429</v>
+        <v>77.07160096540628</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8000750849644342</v>
+        <v>0.6193003942181046</v>
       </c>
       <c r="D5" t="n">
-        <v>0.655779894289743</v>
+        <v>0.7707160096540627</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6279638149986349</v>
+        <v>0.7496355114968407</v>
       </c>
     </row>
     <row r="6">
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.25126514935251</v>
+        <v>84.90851996989593</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8052603284517923</v>
+        <v>0.3641997837771972</v>
       </c>
       <c r="D6" t="n">
-        <v>0.662512651493525</v>
+        <v>0.8490851996989595</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6470749395852567</v>
+        <v>0.846995352335451</v>
       </c>
     </row>
     <row r="7">
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.56583534459641</v>
+        <v>78.08043322174066</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9932866091529527</v>
+        <v>0.5701382547616959</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6056583534459641</v>
+        <v>0.7808043322174067</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5872008916181153</v>
+        <v>0.7790605570166681</v>
       </c>
     </row>
     <row r="8">
@@ -2549,16 +2549,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76.11181757627661</v>
+        <v>84.43948477062949</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7481596853661661</v>
+        <v>0.3815169200095018</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7611181757627661</v>
+        <v>0.844394847706295</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7494271135509251</v>
+        <v>0.8442320171442608</v>
       </c>
     </row>
     <row r="9">
@@ -2568,16 +2568,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.02895353766037</v>
+        <v>88.94324345366309</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3113498551305384</v>
+        <v>0.3042892468734256</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8702895353766035</v>
+        <v>0.8894324345366309</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8696228560809143</v>
+        <v>0.8875612471793624</v>
       </c>
     </row>
     <row r="10">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.15822801235305</v>
+        <v>88.59306741407798</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5138494292351727</v>
+        <v>0.2754360316052044</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8115822801235305</v>
+        <v>0.8859306741407798</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7970519153051789</v>
+        <v>0.8842856655480176</v>
       </c>
     </row>
     <row r="11">
@@ -2606,16 +2606,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>73.34068633811712</v>
+        <v>91.88790560471976</v>
       </c>
       <c r="C11" t="n">
-        <v>0.596056048758328</v>
+        <v>0.2012002514243553</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7334068633811711</v>
+        <v>0.9188790560471978</v>
       </c>
       <c r="E11" t="n">
-        <v>0.73139312154008</v>
+        <v>0.9195098093799231</v>
       </c>
     </row>
     <row r="12">
@@ -2625,16 +2625,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>73.17693059628543</v>
+        <v>87.37463126843657</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6665098991245031</v>
+        <v>0.3530411925613104</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7317693059628544</v>
+        <v>0.8737463126843658</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7109638124843644</v>
+        <v>0.8755009099323008</v>
       </c>
     </row>
     <row r="13">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.89095061375963</v>
+        <v>83.83887403870276</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7411625504493713</v>
+        <v>0.485381395976098</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7389095061375963</v>
+        <v>0.8383887403870276</v>
       </c>
       <c r="E13" t="n">
-        <v>0.723832287351084</v>
+        <v>0.8359800213778245</v>
       </c>
     </row>
     <row r="14">
@@ -2663,16 +2663,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>76.00169551639721</v>
+        <v>82.32476059481483</v>
       </c>
       <c r="C14" t="n">
-        <v>0.639990312140435</v>
+        <v>0.4880872110525767</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7600169551639719</v>
+        <v>0.8232476059481483</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7341555717327377</v>
+        <v>0.815928751864093</v>
       </c>
     </row>
     <row r="15">
@@ -2682,16 +2682,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>67.75543041029766</v>
+        <v>80.59879410721547</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7850843890880546</v>
+        <v>0.4721121236681938</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6775543041029767</v>
+        <v>0.8059879410721547</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6587401552699268</v>
+        <v>0.8007066034302988</v>
       </c>
     </row>
     <row r="16">
@@ -2701,16 +2701,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.91364112146299</v>
+        <v>72.05442953658769</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9068392686545849</v>
+        <v>0.8393239745249351</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6691364112146299</v>
+        <v>0.7205442953658768</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6447120668385532</v>
+        <v>0.7033283966835724</v>
       </c>
     </row>
     <row r="17">
@@ -2720,16 +2720,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>74.90696286300054</v>
+        <v>86.69789531051308</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6286319331576428</v>
+        <v>0.3534505538720017</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7490696286300055</v>
+        <v>0.8669789531051307</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7436017262260398</v>
+        <v>0.8630580391375215</v>
       </c>
     </row>
     <row r="18">
@@ -2739,16 +2739,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>68.75578508464606</v>
+        <v>78.6881374406353</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7116877321153879</v>
+        <v>0.5336739181909554</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6875578508464606</v>
+        <v>0.786881374406353</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6664537436372696</v>
+        <v>0.7805818967501155</v>
       </c>
     </row>
     <row r="19">
@@ -2758,16 +2758,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.29685377901193</v>
+        <v>89.29428455263454</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5977818466722965</v>
+        <v>0.2922476225736318</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7629685377901193</v>
+        <v>0.8929428455263453</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7613196193000136</v>
+        <v>0.893339304840377</v>
       </c>
     </row>
     <row r="20">
@@ -2777,16 +2777,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>70.53503923044318</v>
+        <v>86.62220261420946</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8008411359041929</v>
+        <v>0.3528106887824833</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7053503923044318</v>
+        <v>0.8662220261420946</v>
       </c>
       <c r="E20" t="n">
-        <v>0.698553418228536</v>
+        <v>0.8624263402305614</v>
       </c>
     </row>
     <row r="21">
@@ -2796,16 +2796,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>64.18939610204241</v>
+        <v>74.76137336828174</v>
       </c>
       <c r="C21" t="n">
-        <v>1.166806852895145</v>
+        <v>0.7997648348410924</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6418939610204241</v>
+        <v>0.7476137336828172</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6076461918179099</v>
+        <v>0.7312959934060387</v>
       </c>
     </row>
     <row r="22">
@@ -2815,16 +2815,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>80.87639166428775</v>
+        <v>88.64756615541657</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5538893334567547</v>
+        <v>0.3244488611506919</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8087639166428776</v>
+        <v>0.8864756615541657</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7974056120144331</v>
+        <v>0.8768437956611752</v>
       </c>
     </row>
     <row r="23">
@@ -2834,16 +2834,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>61.57112085744686</v>
+        <v>82.92571735049611</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9620980436603228</v>
+        <v>0.4361078461011251</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6157112085744687</v>
+        <v>0.8292571735049611</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6056850685470119</v>
+        <v>0.826235173687033</v>
       </c>
     </row>
     <row r="24">
@@ -2853,16 +2853,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68.63986712687826</v>
+        <v>86.28733812576233</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8322411994139353</v>
+        <v>0.3484844088117825</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6863986712687826</v>
+        <v>0.8628733812576235</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6641086904066146</v>
+        <v>0.8611033878680674</v>
       </c>
     </row>
     <row r="25">
@@ -2872,16 +2872,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.02908329656831</v>
+        <v>82.51516016574537</v>
       </c>
       <c r="C25" t="n">
-        <v>1.110720455398162</v>
+        <v>0.5928230218899746</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6202908329656831</v>
+        <v>0.8251516016574538</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5778405021095611</v>
+        <v>0.8063020985093896</v>
       </c>
     </row>
     <row r="26">
@@ -2891,16 +2891,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>74.14346144862846</v>
+        <v>84.30799574390781</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5982422176127632</v>
+        <v>0.3836510984091243</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7414346144862844</v>
+        <v>0.8430799574390783</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7294020517265354</v>
+        <v>0.8389309672674028</v>
       </c>
     </row>
     <row r="27">
@@ -2910,16 +2910,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>70.70043858510887</v>
+        <v>76.07808026020987</v>
       </c>
       <c r="C27" t="n">
-        <v>0.967315017975246</v>
+        <v>0.9305906979830374</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7070043858510886</v>
+        <v>0.7607808026020987</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6901241303991992</v>
+        <v>0.7496385122062366</v>
       </c>
     </row>
     <row r="28">
@@ -2929,16 +2929,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65.86164240175088</v>
+        <v>73.01438593759461</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8588774491101503</v>
+        <v>0.8187481243311291</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6586164240175088</v>
+        <v>0.7301438593759462</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6414347361727484</v>
+        <v>0.7145550150725235</v>
       </c>
     </row>
     <row r="29">
@@ -2948,16 +2948,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.27899895327815</v>
+        <v>93.65781710914455</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3998721180173258</v>
+        <v>0.1833695485591306</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8227899895327815</v>
+        <v>0.9365781710914455</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8194510227483949</v>
+        <v>0.9363738906857246</v>
       </c>
     </row>
     <row r="30">
@@ -2967,16 +2967,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82.9550428636926</v>
+        <v>88.90855457227138</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3727599583309105</v>
+        <v>0.306004424647593</v>
       </c>
       <c r="D30" t="n">
-        <v>0.829550428636926</v>
+        <v>0.8890855457227138</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8211724869808943</v>
+        <v>0.8764171397651266</v>
       </c>
     </row>
     <row r="31">
@@ -2986,16 +2986,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.73499770759263</v>
+        <v>96.55265183954879</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1481189069338143</v>
+        <v>0.09709741718261285</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9573499770759263</v>
+        <v>0.9655265183954878</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9574468613931867</v>
+        <v>0.9653253048784954</v>
       </c>
     </row>
     <row r="32">
@@ -3005,16 +3005,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>72.59567700989342</v>
+        <v>83.88755381390266</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7201213425237963</v>
+        <v>0.4585572417424263</v>
       </c>
       <c r="D32" t="n">
-        <v>0.725956770098934</v>
+        <v>0.8388755381390266</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7097468986989934</v>
+        <v>0.8316196100638965</v>
       </c>
     </row>
     <row r="33">
@@ -3024,16 +3024,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.837195212874968</v>
+        <v>5.896806683874408</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2242132032816165</v>
+        <v>0.2026711080342301</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07837195212874967</v>
+        <v>0.0589680668387441</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08551990507396248</v>
+        <v>0.06379591836792757</v>
       </c>
     </row>
   </sheetData>
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69.38736494260331</v>
+        <v>84.40946720992397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7039545758937795</v>
+        <v>0.3751683697104454</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6938736494260331</v>
+        <v>0.8440946720992397</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6801723754808963</v>
+        <v>0.8421076170547084</v>
       </c>
     </row>
     <row r="3">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.74247182069049</v>
+        <v>81.95053590428982</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9489166870713234</v>
+        <v>0.5471933654199044</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5974247182069049</v>
+        <v>0.8195053590428983</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5631077831721444</v>
+        <v>0.8057569481110154</v>
       </c>
     </row>
     <row r="4">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.26304725819428</v>
+        <v>80.09472400280279</v>
       </c>
       <c r="C4" t="n">
-        <v>1.456763010262512</v>
+        <v>0.5940294336644001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5826304725819428</v>
+        <v>0.8009472400280279</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5275719081095068</v>
+        <v>0.7862540055125419</v>
       </c>
     </row>
     <row r="5">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.41975276602739</v>
+        <v>74.23870448706303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8011516250669957</v>
+        <v>0.6405395024766525</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6341975276602738</v>
+        <v>0.7423870448706305</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6122985037434953</v>
+        <v>0.7274670596197927</v>
       </c>
     </row>
     <row r="6">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.86376179724738</v>
+        <v>77.98813138521959</v>
       </c>
       <c r="C6" t="n">
-        <v>1.057178770005703</v>
+        <v>0.5420810957749684</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5086376179724738</v>
+        <v>0.7798813138521959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4714144591450689</v>
+        <v>0.7786604270039471</v>
       </c>
     </row>
     <row r="7">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.50721026998504</v>
+        <v>71.65304198133201</v>
       </c>
       <c r="C7" t="n">
-        <v>1.082958009839058</v>
+        <v>0.884110632352531</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5350721026998503</v>
+        <v>0.7165304198133202</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5127274846996644</v>
+        <v>0.6970757072245046</v>
       </c>
     </row>
     <row r="8">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.17142016799453</v>
+        <v>84.67305080493776</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8992732112683978</v>
+        <v>0.3605897497734986</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6617142016799453</v>
+        <v>0.8467305080493777</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6262825054803051</v>
+        <v>0.8454388336704264</v>
       </c>
     </row>
     <row r="9">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>79.16045986556978</v>
+        <v>88.67879479926297</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5688719925160209</v>
+        <v>0.3445336435805075</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7916045986556977</v>
+        <v>0.8867879479926298</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7909585251116213</v>
+        <v>0.8848910463796701</v>
       </c>
     </row>
     <row r="10">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.01707627228609</v>
+        <v>83.6765023918892</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6447858390708764</v>
+        <v>0.4082966634833913</v>
       </c>
       <c r="D10" t="n">
-        <v>0.740170762722861</v>
+        <v>0.8367650239188921</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7394740814263808</v>
+        <v>0.8315524071796652</v>
       </c>
     </row>
     <row r="11">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>63.13575376949628</v>
+        <v>87.27065113020009</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8232062061627706</v>
+        <v>0.2929123713945349</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6313575376949627</v>
+        <v>0.8727065113020009</v>
       </c>
       <c r="E11" t="n">
-        <v>0.611806589711716</v>
+        <v>0.8732081393737243</v>
       </c>
     </row>
     <row r="12">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>66.84097613301154</v>
+        <v>79.2287995570896</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8034721096356711</v>
+        <v>0.651472809437352</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6684097613301153</v>
+        <v>0.7922879955708959</v>
       </c>
       <c r="E12" t="n">
-        <v>0.653831209038752</v>
+        <v>0.7865981661453605</v>
       </c>
     </row>
     <row r="13">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.27646432927619</v>
+        <v>80.67751451137121</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8481989773611229</v>
+        <v>0.5831784020954123</v>
       </c>
       <c r="D13" t="n">
-        <v>0.692764643292762</v>
+        <v>0.806775145113712</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6735597066910607</v>
+        <v>0.8040157746465877</v>
       </c>
     </row>
     <row r="14">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.90589883995537</v>
+        <v>80.18719885120113</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9039715299538026</v>
+        <v>0.473614541053151</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7190589883995536</v>
+        <v>0.8018719885120114</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6877264720676741</v>
+        <v>0.7955359353613234</v>
       </c>
     </row>
     <row r="15">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>65.60506578776634</v>
+        <v>72.27718232856685</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8415541097521781</v>
+        <v>0.6708287057777246</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6560506578776633</v>
+        <v>0.7227718232856686</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6541431423207502</v>
+        <v>0.7146961666494682</v>
       </c>
     </row>
     <row r="16">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.1730291784531</v>
+        <v>67.37575584563879</v>
       </c>
       <c r="C16" t="n">
-        <v>1.037378638361891</v>
+        <v>0.9862242056677738</v>
       </c>
       <c r="D16" t="n">
-        <v>0.621730291784531</v>
+        <v>0.6737575584563881</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5829362365362404</v>
+        <v>0.6565547406960279</v>
       </c>
     </row>
     <row r="17">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63.77139940656925</v>
+        <v>79.31521898978365</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9640646329770485</v>
+        <v>0.5151855232814948</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6377139940656926</v>
+        <v>0.7931521898978364</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6224855570855796</v>
+        <v>0.7870611076770053</v>
       </c>
     </row>
     <row r="18">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.75573318108288</v>
+        <v>74.03861625100564</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8915727138519287</v>
+        <v>0.710506395685176</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6275573318108287</v>
+        <v>0.7403861625100563</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5894171169504085</v>
+        <v>0.7309067845627588</v>
       </c>
     </row>
     <row r="19">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.18334933693198</v>
+        <v>84.81431500272494</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6058974273502826</v>
+        <v>0.4316476777816812</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7518334933693198</v>
+        <v>0.8481431500272494</v>
       </c>
       <c r="E19" t="n">
-        <v>0.750053637807009</v>
+        <v>0.8483243676347572</v>
       </c>
     </row>
     <row r="20">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>71.25078936669003</v>
+        <v>78.99246533274508</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7503218874335289</v>
+        <v>0.6231807800009846</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7125078936669003</v>
+        <v>0.7899246533274509</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7059412820338714</v>
+        <v>0.7793775569764401</v>
       </c>
     </row>
     <row r="21">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63.0156835266741</v>
+        <v>66.60343082552617</v>
       </c>
       <c r="C21" t="n">
-        <v>1.036240955814719</v>
+        <v>1.111072976408953</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6301568352667412</v>
+        <v>0.6660343082552618</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6203110863733352</v>
+        <v>0.6329586126638153</v>
       </c>
     </row>
     <row r="22">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.83178920232874</v>
+        <v>81.04334812584884</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7728638374557097</v>
+        <v>0.5242262244534989</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7483178920232874</v>
+        <v>0.8104334812584885</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7335350798386061</v>
+        <v>0.805375562887102</v>
       </c>
     </row>
     <row r="23">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>56.29953546310954</v>
+        <v>76.09693855483178</v>
       </c>
       <c r="C23" t="n">
-        <v>1.10151083295544</v>
+        <v>0.6328814016655088</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5629953546310954</v>
+        <v>0.7609693855483179</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5333245176542553</v>
+        <v>0.7412182748477687</v>
       </c>
     </row>
     <row r="24">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62.3646398325245</v>
+        <v>76.56856893225719</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9863872705648342</v>
+        <v>0.6353744796787699</v>
       </c>
       <c r="D24" t="n">
-        <v>0.623646398325245</v>
+        <v>0.7656856893225721</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6059318161667153</v>
+        <v>0.7618375482730728</v>
       </c>
     </row>
     <row r="25">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.79340651735741</v>
+        <v>75.29736416404987</v>
       </c>
       <c r="C25" t="n">
-        <v>1.031906388203303</v>
+        <v>0.6691481959695617</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5779340651735743</v>
+        <v>0.7529736416404986</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5566784889750842</v>
+        <v>0.7292074527013221</v>
       </c>
     </row>
     <row r="26">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70.69697834756356</v>
+        <v>83.75219508819281</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7467265230913956</v>
+        <v>0.417436799251785</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7069697834756357</v>
+        <v>0.8375219508819282</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6779927058277524</v>
+        <v>0.8321017205353737</v>
       </c>
     </row>
     <row r="27">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>67.19738060017821</v>
+        <v>72.37874030052163</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9542967527483901</v>
+        <v>1.032864746288396</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6719738060017819</v>
+        <v>0.7237874030052163</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6533010216228335</v>
+        <v>0.7099788282752457</v>
       </c>
     </row>
     <row r="28">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.08058028183634</v>
+        <v>68.50509087448853</v>
       </c>
       <c r="C28" t="n">
-        <v>1.104191368243967</v>
+        <v>0.931430638054735</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5508058028183636</v>
+        <v>0.6850509087448853</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5212574100399069</v>
+        <v>0.6667904576772731</v>
       </c>
     </row>
     <row r="29">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>73.67996262943451</v>
+        <v>89.56046332580732</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6409965770939986</v>
+        <v>0.3689299278426915</v>
       </c>
       <c r="D29" t="n">
-        <v>0.736799626294345</v>
+        <v>0.8956046332580732</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7266813736177389</v>
+        <v>0.8959975285423157</v>
       </c>
     </row>
     <row r="30">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>77.26208704227545</v>
+        <v>84.79848441595516</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5678498098277487</v>
+        <v>0.3863258458722461</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7726208704227545</v>
+        <v>0.8479848441595517</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7514654225413763</v>
+        <v>0.8453839807435524</v>
       </c>
     </row>
     <row r="31">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.87901279422832</v>
+        <v>98.43657817109144</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1960946427813421</v>
+        <v>0.05037978753631857</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9387901279422832</v>
+        <v>0.9843657817109145</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9383620694977498</v>
+        <v>0.984326829027467</v>
       </c>
     </row>
     <row r="32">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>66.61773602424473</v>
+        <v>79.48606245152061</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8590852304205246</v>
+        <v>0.5798454963811349</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6661773602424472</v>
+        <v>0.7948606245152061</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6458249856255834</v>
+        <v>0.7860219862551344</v>
       </c>
     </row>
     <row r="33">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.741578815509184</v>
+        <v>6.96274776025875</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2264080144234399</v>
+        <v>0.2314911977962771</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08741578815509185</v>
+        <v>0.0696274776025875</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09624212447660478</v>
+        <v>0.0761196516207777</v>
       </c>
     </row>
   </sheetData>
@@ -3743,16 +3743,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60.58356906201611</v>
+        <v>65.1855119853978</v>
       </c>
       <c r="C2" t="n">
-        <v>0.899556040018797</v>
+        <v>0.8060876078903675</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6058356906201611</v>
+        <v>0.6518551198539779</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5889576924231111</v>
+        <v>0.6415655391790083</v>
       </c>
     </row>
     <row r="3">
@@ -3762,16 +3762,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.99458472824159</v>
+        <v>59.4431612730214</v>
       </c>
       <c r="C3" t="n">
-        <v>1.085677021245162</v>
+        <v>1.03070332420369</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5399458472824159</v>
+        <v>0.5944316127302139</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5103943544785101</v>
+        <v>0.5668561871288742</v>
       </c>
     </row>
     <row r="4">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.52728829834168</v>
+        <v>57.24314224171489</v>
       </c>
       <c r="C4" t="n">
-        <v>1.225687710444133</v>
+        <v>1.092132963985205</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5452728829834168</v>
+        <v>0.5724314224171489</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5141820479605628</v>
+        <v>0.5410133798349228</v>
       </c>
     </row>
     <row r="5">
@@ -3800,16 +3800,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57.53233159456397</v>
+        <v>62.56221939636156</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8997621903816858</v>
+        <v>0.8797869684795538</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5753233159456397</v>
+        <v>0.6256221939636155</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5659912118349778</v>
+        <v>0.6106410485407741</v>
       </c>
     </row>
     <row r="6">
@@ -3819,16 +3819,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.60869038659504</v>
+        <v>53.86344172527443</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9809301664431889</v>
+        <v>1.002835293610891</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5460869038659504</v>
+        <v>0.5386344172527444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5306451515319465</v>
+        <v>0.5208174999689258</v>
       </c>
     </row>
     <row r="7">
@@ -3838,16 +3838,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.07282069914099</v>
+        <v>50.27621346205417</v>
       </c>
       <c r="C7" t="n">
-        <v>1.127129326264064</v>
+        <v>1.119819076855977</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4807282069914099</v>
+        <v>0.5027621346205418</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4427174816394756</v>
+        <v>0.4921695954433627</v>
       </c>
     </row>
     <row r="8">
@@ -3857,16 +3857,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.422434450125</v>
+        <v>73.81231671554252</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7019468541877966</v>
+        <v>0.7172287166739503</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7342243445012501</v>
+        <v>0.7381231671554251</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7291353637962513</v>
+        <v>0.7313400921288039</v>
       </c>
     </row>
     <row r="9">
@@ -3876,16 +3876,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.38445834306525</v>
+        <v>75.01275962594832</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7118041822531571</v>
+        <v>0.7146140887557219</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7338445834306525</v>
+        <v>0.7501275962594832</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7282716077051014</v>
+        <v>0.7317538256731069</v>
       </c>
     </row>
     <row r="10">
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.95463628578102</v>
+        <v>76.19218159326638</v>
       </c>
       <c r="C10" t="n">
-        <v>0.597682658272485</v>
+        <v>0.602893043961376</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7595463628578102</v>
+        <v>0.7619218159326637</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7584288564105941</v>
+        <v>0.7630857517633446</v>
       </c>
     </row>
     <row r="11">
@@ -3914,16 +3914,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.83268886409052</v>
+        <v>64.50427771866539</v>
       </c>
       <c r="C11" t="n">
-        <v>1.067969221870104</v>
+        <v>0.8100481207172076</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4883268886409052</v>
+        <v>0.6450427771866539</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4497007272239572</v>
+        <v>0.6392187753101259</v>
       </c>
     </row>
     <row r="12">
@@ -3933,16 +3933,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61.00666960786858</v>
+        <v>71.49776382148634</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8214689999818802</v>
+        <v>0.7101704850792885</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6100666960786858</v>
+        <v>0.7149776382148635</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5987805571412215</v>
+        <v>0.7059541542600305</v>
       </c>
     </row>
     <row r="13">
@@ -3952,16 +3952,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63.20478550852516</v>
+        <v>65.52565333610153</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9274999241034191</v>
+        <v>0.9516668846209845</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6320478550852516</v>
+        <v>0.6552565333610152</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6253310470468294</v>
+        <v>0.6387386198482308</v>
       </c>
     </row>
     <row r="14">
@@ -3971,16 +3971,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54.47131895604633</v>
+        <v>61.25044334293549</v>
       </c>
       <c r="C14" t="n">
-        <v>1.130367820213238</v>
+        <v>0.9359841123223305</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5447131895604633</v>
+        <v>0.6125044334293549</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4960823806644035</v>
+        <v>0.5767646178814635</v>
       </c>
     </row>
     <row r="15">
@@ -3990,16 +3990,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>60.82734279708302</v>
+        <v>50.68607859929584</v>
       </c>
       <c r="C15" t="n">
-        <v>1.012958939870199</v>
+        <v>1.111552322904269</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6082734279708302</v>
+        <v>0.5068607859929585</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5861018408741796</v>
+        <v>0.474866777388865</v>
       </c>
     </row>
     <row r="16">
@@ -4009,16 +4009,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.04229275339752</v>
+        <v>57.45828251109439</v>
       </c>
       <c r="C16" t="n">
-        <v>1.244370240966479</v>
+        <v>1.039292854070663</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4904229275339752</v>
+        <v>0.5745828251109438</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4620242363458855</v>
+        <v>0.5620505308574105</v>
       </c>
     </row>
     <row r="17">
@@ -4028,16 +4028,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.18140295331275</v>
+        <v>51.81887386569088</v>
       </c>
       <c r="C17" t="n">
-        <v>1.090344803035259</v>
+        <v>1.174057863156001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6018140295331275</v>
+        <v>0.5181887386569088</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5764356805172423</v>
+        <v>0.5073689026335582</v>
       </c>
     </row>
     <row r="18">
@@ -4047,16 +4047,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>56.90109776036125</v>
+        <v>53.34933693198038</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8659388666351637</v>
+        <v>1.05451927781105</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5690109776036125</v>
+        <v>0.5334933693198038</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5515134798795648</v>
+        <v>0.5032993609478028</v>
       </c>
     </row>
     <row r="19">
@@ -4066,16 +4066,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.21298627150755</v>
+        <v>69.55207224975996</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8155933757623037</v>
+        <v>0.7389190984268983</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6121298627150754</v>
+        <v>0.6955207224975994</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6082683680061776</v>
+        <v>0.6923954241762342</v>
       </c>
     </row>
     <row r="20">
@@ -4085,16 +4085,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.32796996513811</v>
+        <v>69.15397192017232</v>
       </c>
       <c r="C20" t="n">
-        <v>1.127243248621623</v>
+        <v>0.9018194305400054</v>
       </c>
       <c r="D20" t="n">
-        <v>0.533279699651381</v>
+        <v>0.6915397192017232</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5277634553284745</v>
+        <v>0.6744504754328297</v>
       </c>
     </row>
     <row r="21">
@@ -4104,16 +4104,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>53.32762394138358</v>
+        <v>60.00856408792463</v>
       </c>
       <c r="C21" t="n">
-        <v>1.128619704395533</v>
+        <v>1.095773233349125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5332762394138357</v>
+        <v>0.6000856408792463</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4931157599307278</v>
+        <v>0.5774123489733924</v>
       </c>
     </row>
     <row r="22">
@@ -4123,16 +4123,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.15520895509476</v>
+        <v>73.413956868139</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8489879903693994</v>
+        <v>0.8251440821836391</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7215520895509477</v>
+        <v>0.73413956868139</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6963598542695448</v>
+        <v>0.7185817187463976</v>
       </c>
     </row>
     <row r="23">
@@ -4142,16 +4142,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>55.98024204361629</v>
+        <v>60.15968996271594</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9579200088977814</v>
+        <v>0.8951869452993074</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5598024204361629</v>
+        <v>0.6015968996271595</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5458581646341123</v>
+        <v>0.5917245622929036</v>
       </c>
     </row>
     <row r="24">
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49.19350513412746</v>
+        <v>63.64120796892708</v>
       </c>
       <c r="C24" t="n">
-        <v>1.052859225869179</v>
+        <v>0.9779285232226054</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4919350513412746</v>
+        <v>0.6364120796892706</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4700874717402311</v>
+        <v>0.6183813254216093</v>
       </c>
     </row>
     <row r="25">
@@ -4180,16 +4180,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.69962542928572</v>
+        <v>53.14250123270963</v>
       </c>
       <c r="C25" t="n">
-        <v>1.364760627845923</v>
+        <v>1.454892626901467</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4669962542928572</v>
+        <v>0.5314250123270963</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4155843821393358</v>
+        <v>0.4806873511825723</v>
       </c>
     </row>
     <row r="26">
@@ -4199,16 +4199,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58.7135701865933</v>
+        <v>63.65807662696044</v>
       </c>
       <c r="C26" t="n">
-        <v>1.025201387827595</v>
+        <v>0.9048549494395652</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5871357018659331</v>
+        <v>0.6365807662696044</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5582530660277112</v>
+        <v>0.6276278879757691</v>
       </c>
     </row>
     <row r="27">
@@ -4218,16 +4218,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>54.79493767247121</v>
+        <v>58.80656407062345</v>
       </c>
       <c r="C27" t="n">
-        <v>1.253823390603066</v>
+        <v>1.166407058946788</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5479493767247121</v>
+        <v>0.5880656407062345</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5236552208069354</v>
+        <v>0.5630230859908479</v>
       </c>
     </row>
     <row r="28">
@@ -4237,16 +4237,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.16026090191092</v>
+        <v>55.76942707116844</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9617547715703646</v>
+        <v>1.088628864785036</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5616026090191092</v>
+        <v>0.5576942707116843</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5378168043393812</v>
+        <v>0.513495857912741</v>
       </c>
     </row>
     <row r="29">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>67.79807783804358</v>
+        <v>76.15818475938373</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7605717296401659</v>
+        <v>0.5708137494822343</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6779807783804358</v>
+        <v>0.7615818475938373</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6586792311251065</v>
+        <v>0.7585159138831624</v>
       </c>
     </row>
     <row r="30">
@@ -4275,16 +4275,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>73.66119084075122</v>
+        <v>77.96382321646381</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5501465065870434</v>
+        <v>0.493603901383661</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7366119084075121</v>
+        <v>0.7796382321646381</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7246463716822354</v>
+        <v>0.7745398651689167</v>
       </c>
     </row>
     <row r="31">
@@ -4294,16 +4294,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>86.39901729253714</v>
+        <v>92.97355513455999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3656830662085364</v>
+        <v>0.2580995982202391</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8639901729253714</v>
+        <v>0.9297355513455999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8618626301083759</v>
+        <v>0.930424835195236</v>
       </c>
     </row>
     <row r="32">
@@ -4313,16 +4313,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59.86575431736721</v>
+        <v>64.13610844384466</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9534753333461575</v>
+        <v>0.9041821689093031</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5986575431736723</v>
+        <v>0.6413610844384469</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5778881499204055</v>
+        <v>0.6242921770380406</v>
       </c>
     </row>
     <row r="33">
@@ -4332,16 +4332,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.469193793583846</v>
+        <v>9.741120601320308</v>
       </c>
       <c r="C33" t="n">
-        <v>0.220926316418717</v>
+        <v>0.2355767607169111</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09469193793583847</v>
+        <v>0.09741120601320308</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1040438820685454</v>
+        <v>0.1057249776824408</v>
       </c>
     </row>
   </sheetData>
@@ -4397,16 +4397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46.41398281992058</v>
+        <v>55.92107198159154</v>
       </c>
       <c r="C2" t="n">
-        <v>2.100358962640166</v>
+        <v>1.296770676722129</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4641398281992059</v>
+        <v>0.5592107198159153</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3652549120713577</v>
+        <v>0.5135241730683682</v>
       </c>
     </row>
     <row r="3">
@@ -4416,16 +4416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.69194370193514</v>
+        <v>48.3665948667376</v>
       </c>
       <c r="C3" t="n">
-        <v>2.109984482995545</v>
+        <v>1.422827776273092</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3869194370193513</v>
+        <v>0.483665948667376</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3120244791839025</v>
+        <v>0.4521682111254798</v>
       </c>
     </row>
     <row r="4">
@@ -4435,16 +4435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.01209353022085</v>
+        <v>48.24955233176757</v>
       </c>
       <c r="C4" t="n">
-        <v>2.405331469327211</v>
+        <v>1.775968003769715</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3801209353022085</v>
+        <v>0.4824955233176758</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2888706125953223</v>
+        <v>0.4101999016088036</v>
       </c>
     </row>
     <row r="5">
@@ -4454,16 +4454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.65569771364805</v>
+        <v>46.9340565229803</v>
       </c>
       <c r="C5" t="n">
-        <v>1.52151871919632</v>
+        <v>1.259743361671765</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3865569771364804</v>
+        <v>0.469340565229803</v>
       </c>
       <c r="E5" t="n">
-        <v>0.267982812461557</v>
+        <v>0.4259261098375654</v>
       </c>
     </row>
     <row r="6">
@@ -4473,16 +4473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.76517097898771</v>
+        <v>36.73656346508188</v>
       </c>
       <c r="C6" t="n">
-        <v>2.156550590942303</v>
+        <v>2.007867406308651</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3376517097898771</v>
+        <v>0.3673656346508188</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1965460288722741</v>
+        <v>0.2794502793799747</v>
       </c>
     </row>
     <row r="7">
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.40492564814575</v>
+        <v>45.68672739383559</v>
       </c>
       <c r="C7" t="n">
-        <v>1.667323982715607</v>
+        <v>1.430526220798492</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3940492564814574</v>
+        <v>0.4568672739383558</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2951488568143538</v>
+        <v>0.4281861662019917</v>
       </c>
     </row>
     <row r="8">
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64.37893061358662</v>
+        <v>65.58430436249448</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9504735049830441</v>
+        <v>0.9338165367487818</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6437893061358662</v>
+        <v>0.6558430436249448</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5965674470613209</v>
+        <v>0.6279833115039732</v>
       </c>
     </row>
     <row r="9">
@@ -4530,16 +4530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.27509753544581</v>
+        <v>70.35735603249164</v>
       </c>
       <c r="C9" t="n">
-        <v>0.973059413023293</v>
+        <v>0.8884849265217781</v>
       </c>
       <c r="D9" t="n">
-        <v>0.612750975354458</v>
+        <v>0.7035735603249164</v>
       </c>
       <c r="E9" t="n">
-        <v>0.587533593795454</v>
+        <v>0.6897612385920725</v>
       </c>
     </row>
     <row r="10">
@@ -4549,16 +4549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65.10246628431041</v>
+        <v>60.1442053997007</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9513327730198702</v>
+        <v>2.049992035304119</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6510246628431042</v>
+        <v>0.6014420539970069</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5994140664714305</v>
+        <v>0.5266918210488243</v>
       </c>
     </row>
     <row r="11">
@@ -4568,16 +4568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.07057154473654</v>
+        <v>52.0883398645317</v>
       </c>
       <c r="C11" t="n">
-        <v>1.687974201515317</v>
+        <v>1.312304575741291</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3807057154473655</v>
+        <v>0.520883398645317</v>
       </c>
       <c r="E11" t="n">
-        <v>0.277006217431708</v>
+        <v>0.4954132542780684</v>
       </c>
     </row>
     <row r="12">
@@ -4587,16 +4587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.58766079291343</v>
+        <v>62.93653059282519</v>
       </c>
       <c r="C12" t="n">
-        <v>1.43957970837752</v>
+        <v>0.9609158260126908</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4358766079291344</v>
+        <v>0.6293653059282519</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3448925973225771</v>
+        <v>0.6163076181779689</v>
       </c>
     </row>
     <row r="13">
@@ -4606,16 +4606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.76887343316118</v>
+        <v>56.78794799262969</v>
       </c>
       <c r="C13" t="n">
-        <v>1.165962553520997</v>
+        <v>1.253840668002764</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5176887343316119</v>
+        <v>0.5678794799262969</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4723821732632535</v>
+        <v>0.5298497156021864</v>
       </c>
     </row>
     <row r="14">
@@ -4625,16 +4625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.32707895397019</v>
+        <v>56.72030034861893</v>
       </c>
       <c r="C14" t="n">
-        <v>1.640096830079953</v>
+        <v>1.131296314795812</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4032707895397019</v>
+        <v>0.5672030034861893</v>
       </c>
       <c r="E14" t="n">
-        <v>0.315801497530127</v>
+        <v>0.5137657730325762</v>
       </c>
     </row>
     <row r="15">
@@ -4644,16 +4644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44.61163158850855</v>
+        <v>41.55070545592955</v>
       </c>
       <c r="C15" t="n">
-        <v>1.349362939596176</v>
+        <v>1.75509117046992</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4461163158850855</v>
+        <v>0.4155070545592955</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3802166402937368</v>
+        <v>0.343040625968186</v>
       </c>
     </row>
     <row r="16">
@@ -4663,16 +4663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.25988114084032</v>
+        <v>49.41072154603414</v>
       </c>
       <c r="C16" t="n">
-        <v>3.056004317795547</v>
+        <v>1.651197850331664</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3225988114084032</v>
+        <v>0.4941072154603414</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1882854626792321</v>
+        <v>0.4109388417565999</v>
       </c>
     </row>
     <row r="17">
@@ -4682,16 +4682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.53541985657316</v>
+        <v>37.65620809868598</v>
       </c>
       <c r="C17" t="n">
-        <v>2.263215490678946</v>
+        <v>1.703903621435165</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3453541985657315</v>
+        <v>0.3765620809868597</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2436814838685792</v>
+        <v>0.3188434204472709</v>
       </c>
     </row>
     <row r="18">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>38.18891166878606</v>
+        <v>56.61363852628483</v>
       </c>
       <c r="C18" t="n">
-        <v>3.130113048230609</v>
+        <v>0.9962380154679218</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3818891166878606</v>
+        <v>0.5661363852628483</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2520405328556623</v>
+        <v>0.5370491726370977</v>
       </c>
     </row>
     <row r="19">
@@ -4720,16 +4720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45.64996236991669</v>
+        <v>60.41877524892084</v>
       </c>
       <c r="C19" t="n">
-        <v>2.593970902419338</v>
+        <v>1.120188276966413</v>
       </c>
       <c r="D19" t="n">
-        <v>0.456499623699167</v>
+        <v>0.6041877524892084</v>
       </c>
       <c r="E19" t="n">
-        <v>0.353012143367153</v>
+        <v>0.5570744519774307</v>
       </c>
     </row>
     <row r="20">
@@ -4739,16 +4739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>51.86930682791374</v>
+        <v>61.02310573620879</v>
       </c>
       <c r="C20" t="n">
-        <v>1.337496814131737</v>
+        <v>1.05526551498721</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5186930682791374</v>
+        <v>0.6102310573620879</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4662865130537097</v>
+        <v>0.5882456136503684</v>
       </c>
     </row>
     <row r="21">
@@ -4758,16 +4758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>45.80376992880561</v>
+        <v>43.01819219889445</v>
       </c>
       <c r="C21" t="n">
-        <v>1.673844976257533</v>
+        <v>1.76369657938679</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4580376992880561</v>
+        <v>0.4301819219889446</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3656577844195837</v>
+        <v>0.3855519582562359</v>
       </c>
     </row>
     <row r="22">
@@ -4777,16 +4777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.66340539278021</v>
+        <v>62.80253289388317</v>
       </c>
       <c r="C22" t="n">
-        <v>1.027722942829132</v>
+        <v>1.224219996109605</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5966340539278022</v>
+        <v>0.6280253289388317</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5737468979203802</v>
+        <v>0.6020194674630874</v>
       </c>
     </row>
     <row r="23">
@@ -4796,16 +4796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>41.69923615256187</v>
+        <v>43.25175823320271</v>
       </c>
       <c r="C23" t="n">
-        <v>3.973988573249275</v>
+        <v>2.020515607545773</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4169923615256187</v>
+        <v>0.432517582332027</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2849963599428493</v>
+        <v>0.3462689931526571</v>
       </c>
     </row>
     <row r="24">
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>33.14500990492998</v>
+        <v>50.65709910985389</v>
       </c>
       <c r="C24" t="n">
-        <v>2.36606995947659</v>
+        <v>1.423059048689902</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3314500990492997</v>
+        <v>0.506570991098539</v>
       </c>
       <c r="E24" t="n">
-        <v>0.221927197851467</v>
+        <v>0.4548192054935559</v>
       </c>
     </row>
     <row r="25">
@@ -4834,16 +4834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.31352347338645</v>
+        <v>37.76364847446777</v>
       </c>
       <c r="C25" t="n">
-        <v>1.786534869670868</v>
+        <v>2.196855119615793</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3331352347338645</v>
+        <v>0.3776364847446777</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2752524891757561</v>
+        <v>0.2850384805894292</v>
       </c>
     </row>
     <row r="26">
@@ -4853,16 +4853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41.90001643612834</v>
+        <v>58.91694564831876</v>
       </c>
       <c r="C26" t="n">
-        <v>1.972150239845117</v>
+        <v>1.059864457634588</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4190001643612834</v>
+        <v>0.5891694564831875</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3482320856172831</v>
+        <v>0.5654814998209812</v>
       </c>
     </row>
     <row r="27">
@@ -4872,16 +4872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>39.76409830534866</v>
+        <v>55.8193409977595</v>
       </c>
       <c r="C27" t="n">
-        <v>1.857523496293773</v>
+        <v>1.478090263468524</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3976409830534866</v>
+        <v>0.5581934099775949</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3377627976933387</v>
+        <v>0.5269101185198467</v>
       </c>
     </row>
     <row r="28">
@@ -4891,16 +4891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42.59362105208523</v>
+        <v>56.70386422027872</v>
       </c>
       <c r="C28" t="n">
-        <v>2.220994537572066</v>
+        <v>1.322607742249966</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4259362105208522</v>
+        <v>0.5670386422027872</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3437907669357346</v>
+        <v>0.5185440878268305</v>
       </c>
     </row>
     <row r="29">
@@ -4910,16 +4910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50.40130104931703</v>
+        <v>61.21731156843917</v>
       </c>
       <c r="C29" t="n">
-        <v>2.356446304370183</v>
+        <v>0.8930626551310221</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5040130104931704</v>
+        <v>0.6121731156843917</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4227939561559384</v>
+        <v>0.6057547399147311</v>
       </c>
     </row>
     <row r="30">
@@ -4929,16 +4929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>61.88479139092899</v>
+        <v>71.12293358939091</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8373917389661074</v>
+        <v>0.6827151164722939</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6188479139092899</v>
+        <v>0.7112293358939091</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5853283790604549</v>
+        <v>0.6960546060720455</v>
       </c>
     </row>
     <row r="31">
@@ -4948,16 +4948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.21725101428214</v>
+        <v>85.00384951426915</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6880893220504125</v>
+        <v>0.6204636657610536</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7421725101428213</v>
+        <v>0.8500384951426916</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7293606869853986</v>
+        <v>0.8473020791541286</v>
       </c>
     </row>
     <row r="32">
@@ -4967,16 +4967,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>45.6985210368025</v>
+        <v>54.6488060738703</v>
       </c>
       <c r="C32" t="n">
-        <v>1.842015588859018</v>
+        <v>1.35637963434649</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4569852103680251</v>
+        <v>0.546488060738703</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3763932490916966</v>
+        <v>0.5032721645386112</v>
       </c>
     </row>
     <row r="33">
@@ -4986,16 +4986,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10.82640379566683</v>
+        <v>10.77245562517648</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7386581355681067</v>
+        <v>0.4087965478548774</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1082640379566683</v>
+        <v>0.1077245562517648</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1368121336323448</v>
+        <v>0.1272817257493416</v>
       </c>
     </row>
   </sheetData>
